--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4654" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EAE817-F3B9-43F4-81FE-230D30A5E0BF}"/>
+  <xr:revisionPtr revIDLastSave="4714" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B2F721-7A85-4BAC-90A1-1C13D83060D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="2019" sheetId="26" r:id="rId14"/>
     <sheet name="2020" sheetId="27" r:id="rId15"/>
     <sheet name="2021" sheetId="28" r:id="rId16"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId18"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId19"/>
+    <sheet name="2022" sheetId="31" r:id="rId17"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId18"/>
+    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId19"/>
+    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="747">
   <si>
     <t>ROUND</t>
   </si>
@@ -2280,6 +2281,18 @@
   </si>
   <si>
     <t>4-6 7-5 6-0</t>
+  </si>
+  <si>
+    <t>MELBOURNE SUMMER SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktorija Golubic (SWITZERLAND) </t>
+  </si>
+  <si>
+    <t>6-2 5-7 6-4</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -2816,15 +2829,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Simona Halep (ROMANIA):</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>YTD Wins-Losses</a:t>
+              <a:t>Simona Halep (ROMANIA): YTD Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2891,10 +2896,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -2943,15 +2948,18 @@
                 <c:pt idx="15">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$17</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3000,12 +3008,15 @@
                 <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B71-46B7-82BB-6DAA02C19F17}"/>
+              <c16:uniqueId val="{00000000-BF64-463B-9261-76D48817C310}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3035,10 +3046,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -3087,15 +3098,18 @@
                 <c:pt idx="15">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$17</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3144,12 +3158,15 @@
                 <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B71-46B7-82BB-6DAA02C19F17}"/>
+              <c16:uniqueId val="{00000001-BF64-463B-9261-76D48817C310}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3163,11 +3180,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2005813616"/>
-        <c:axId val="2005808208"/>
+        <c:axId val="1222363903"/>
+        <c:axId val="1222363487"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2005813616"/>
+        <c:axId val="1222363903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,7 +3282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2005808208"/>
+        <c:crossAx val="1222363487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3273,7 +3290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2005808208"/>
+        <c:axId val="1222363487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2005813616"/>
+        <c:crossAx val="1222363903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3489,11 +3506,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Simona</a:t>
+              <a:t>Simona Halep</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Halep (ROMANIA): Winning Percentile Range</a:t>
+              <a:t> (ROMANIA): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3589,10 +3606,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -3641,15 +3658,18 @@
                 <c:pt idx="15">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$17</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
@@ -3698,13 +3718,16 @@
                 <c:pt idx="15">
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D363-4040-A65A-F33E6ADD0D55}"/>
+              <c16:uniqueId val="{00000000-8E3B-4A30-B130-3C6FEBDE225B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3718,11 +3741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1925537648"/>
-        <c:axId val="1925536400"/>
+        <c:axId val="1712375439"/>
+        <c:axId val="1712373359"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1925537648"/>
+        <c:axId val="1712375439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925536400"/>
+        <c:crossAx val="1712373359"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3828,7 +3851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1925536400"/>
+        <c:axId val="1712373359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +3957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925537648"/>
+        <c:crossAx val="1712375439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5109,19 +5132,18 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D20F417-27C2-4832-8F18-6B5E880395C0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8C31A373-524C-46DB-B8B5-5ED09ADA9231}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F69636D-B278-4498-BC02-4F4A17EDB754}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C423CD26-C759-46C2-921F-097420D01674}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5135,13 +5157,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8680040" cy="6298790"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993EA1AE-2694-4AB6-A459-CA5F14DC4EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1A8DC9-9EFC-4451-AAC1-ABE23FBE2C18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5168,13 +5190,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8680040" cy="6298790"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F2CF2A-A819-4291-B40C-57EE865CFD36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B0CDEE-9688-4358-8CB7-953598C6B61E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11259,8 +11281,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11897,14 +11919,148 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172A4EE8-E43C-4F58-AB16-55FA8C82C9ED}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>744</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>746</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11954,7 +12110,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -12274,57 +12430,78 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3">
-        <f>SUM(B2:B17)</f>
-        <v>261</v>
-      </c>
-      <c r="C18" s="3">
-        <f>SUM(C2:C17)</f>
-        <v>22</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:E18" si="1">SUM(D2:D17)</f>
-        <v>536</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>228</v>
-      </c>
-      <c r="F18" s="4">
-        <f>(D18-E18)/D18</f>
-        <v>0.57462686567164178</v>
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>724</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3">
-        <f>AVERAGE(B2:B17)</f>
-        <v>16.3125</v>
+        <f>SUM(B2:B18)</f>
+        <v>262</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:E19" si="2">AVERAGE(C2:C17)</f>
-        <v>1.375</v>
+        <f>SUM(C2:C18)</f>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>33.5</v>
+        <f>SUM(D2:D18)</f>
+        <v>541</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="2"/>
-        <v>14.25</v>
+        <f>SUM(E2:E18)</f>
+        <v>228</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.57462686567164178</v>
+        <v>0.57855822550831792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B20" s="3">
+        <f>AVERAGE(B2:B18)</f>
+        <v>15.411764705882353</v>
+      </c>
+      <c r="C20" s="3">
+        <f>AVERAGE(C2:C18)</f>
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="D20" s="3">
+        <f>AVERAGE(D2:D18)</f>
+        <v>31.823529411764707</v>
+      </c>
+      <c r="E20" s="3">
+        <f>AVERAGE(E2:E18)</f>
+        <v>13.411764705882353</v>
+      </c>
+      <c r="F20" s="4">
+        <f>(D20-E20)/D20</f>
+        <v>0.57855822550831804</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4714" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B2F721-7A85-4BAC-90A1-1C13D83060D0}"/>
+  <xr:revisionPtr revIDLastSave="4738" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2BF4932-68DD-485A-9B0E-593928BF693E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="748">
   <si>
     <t>ROUND</t>
   </si>
@@ -1683,9 +1683,6 @@
     <t>Karolína Plíšková (CZECH REPUBLIC)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>2-6 6-1 6-2</t>
   </si>
   <si>
@@ -2293,6 +2290,12 @@
   </si>
   <si>
     <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-4</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3012,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,7 +3162,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3722,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5157,7 +5160,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680040" cy="6298790"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5190,7 +5193,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680040" cy="6298790"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5651,8 +5654,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,7 +5789,7 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5828,7 +5831,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>20</v>
@@ -5904,7 +5907,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -5943,7 +5946,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -5952,13 +5955,13 @@
         <v>95</v>
       </c>
       <c r="D23" t="s">
+        <v>746</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
         <v>543</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,7 +5975,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6000,7 +6003,7 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6014,7 +6017,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6028,7 +6031,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6042,7 +6045,7 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -6056,7 +6059,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -6104,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6124,7 +6127,7 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6172,7 +6175,7 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6186,7 +6189,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
@@ -6214,7 +6217,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
@@ -6234,7 +6237,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,7 +6251,7 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B50" t="s">
         <v>257</v>
@@ -6282,7 +6285,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>19</v>
@@ -6316,7 +6319,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6336,13 +6339,13 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -6371,7 +6374,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6385,7 +6388,7 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6413,12 +6416,12 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -6433,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,7 +6458,7 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>19</v>
@@ -6489,7 +6492,7 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6503,13 +6506,13 @@
         <v>145</v>
       </c>
       <c r="D68" t="s">
+        <v>566</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
         <v>567</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6517,7 +6520,7 @@
         <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>19</v>
@@ -6551,7 +6554,7 @@
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6621,7 +6624,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>20</v>
@@ -6641,7 +6644,7 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>19</v>
@@ -6655,13 +6658,13 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
+        <v>570</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
         <v>571</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6681,7 +6684,7 @@
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6793,8 +6796,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6838,13 +6841,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>574</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6872,7 +6875,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6920,7 +6923,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6960,12 +6963,12 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -6988,7 +6991,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
@@ -7008,7 +7011,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7036,7 +7039,7 @@
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -7084,7 +7087,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7126,7 +7129,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>20</v>
@@ -7146,7 +7149,7 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7194,7 +7197,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7236,13 +7239,13 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>543</v>
+        <v>746</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7256,7 +7259,7 @@
         <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -7284,13 +7287,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
+        <v>587</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
         <v>588</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7304,7 +7307,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7318,7 +7321,7 @@
         <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
@@ -7366,7 +7369,7 @@
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7380,7 +7383,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7394,13 +7397,13 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
+        <v>592</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
         <v>593</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7408,7 +7411,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>19</v>
@@ -7422,7 +7425,7 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>19</v>
@@ -7442,7 +7445,7 @@
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7461,7 +7464,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -7470,7 +7473,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>543</v>
+        <v>746</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>19</v>
@@ -7504,7 +7507,7 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7518,7 +7521,7 @@
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7532,12 +7535,12 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -7560,7 +7563,7 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>543</v>
+        <v>746</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>19</v>
@@ -7642,7 +7645,7 @@
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7690,7 +7693,7 @@
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7786,7 +7789,7 @@
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7836,8 +7839,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7887,7 +7890,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7895,13 +7898,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>603</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7926,7 +7929,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -7935,7 +7938,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
@@ -7955,12 +7958,12 @@
         <v>507</v>
       </c>
       <c r="F8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -8003,7 +8006,7 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
@@ -8017,7 +8020,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
@@ -8037,7 +8040,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8045,13 +8048,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8093,7 +8096,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>20</v>
@@ -8113,7 +8116,7 @@
         <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
@@ -8133,7 +8136,7 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,7 +8158,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -8189,7 +8192,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8203,7 +8206,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>19</v>
@@ -8223,7 +8226,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8231,7 +8234,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -8265,7 +8268,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8307,7 +8310,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>19</v>
@@ -8341,7 +8344,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8363,7 +8366,7 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>20</v>
@@ -8374,7 +8377,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B43" t="s">
         <v>257</v>
@@ -8383,13 +8386,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8403,7 +8406,7 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8417,7 +8420,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8431,7 +8434,7 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -8445,7 +8448,7 @@
         <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>19</v>
@@ -8459,13 +8462,13 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
+        <v>621</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
         <v>622</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8487,18 +8490,18 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
@@ -8527,7 +8530,7 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8535,18 +8538,18 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -8561,7 +8564,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8583,7 +8586,7 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>19</v>
@@ -8608,7 +8611,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -8617,7 +8620,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>19</v>
@@ -8645,13 +8648,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8699,7 +8702,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -8713,7 +8716,7 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>20</v>
@@ -8733,13 +8736,13 @@
         <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -8753,7 +8756,7 @@
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -8775,7 +8778,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>19</v>
@@ -8789,7 +8792,7 @@
         <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>19</v>
@@ -8803,13 +8806,13 @@
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -8851,7 +8854,7 @@
         <v>486</v>
       </c>
       <c r="D81" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>19</v>
@@ -8927,7 +8930,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -8941,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -8955,7 +8958,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>19</v>
@@ -8983,13 +8986,13 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9003,7 +9006,7 @@
         <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -9017,7 +9020,7 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -9037,7 +9040,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9045,7 +9048,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -9079,7 +9082,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9093,7 +9096,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9107,7 +9110,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
@@ -9135,7 +9138,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -9155,12 +9158,12 @@
         <v>507</v>
       </c>
       <c r="F19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -9169,7 +9172,7 @@
         <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -9183,13 +9186,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>644</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>645</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9197,7 +9200,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -9217,7 +9220,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9225,7 +9228,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>20</v>
@@ -9245,13 +9248,13 @@
         <v>95</v>
       </c>
       <c r="D27" t="s">
+        <v>648</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
         <v>649</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9265,7 +9268,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9287,13 +9290,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
         <v>652</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9313,7 +9316,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9321,7 +9324,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>20</v>
@@ -9341,7 +9344,7 @@
         <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>19</v>
@@ -9355,7 +9358,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>19</v>
@@ -9369,7 +9372,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>19</v>
@@ -9403,7 +9406,7 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>19</v>
@@ -9423,7 +9426,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9431,7 +9434,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
@@ -9479,7 +9482,7 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -9493,7 +9496,7 @@
         <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>19</v>
@@ -9521,7 +9524,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>19</v>
@@ -9541,7 +9544,7 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9617,12 +9620,12 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -9631,13 +9634,13 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9659,7 +9662,7 @@
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>19</v>
@@ -9693,12 +9696,12 @@
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -9707,13 +9710,13 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
+        <v>659</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
         <v>660</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9749,7 +9752,7 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>19</v>
@@ -9769,7 +9772,7 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9823,7 +9826,7 @@
         <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>20</v>
@@ -9980,7 +9983,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
@@ -10020,7 +10023,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10034,7 +10037,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10042,7 +10045,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>20</v>
@@ -10062,13 +10065,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10101,7 +10104,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -10124,13 +10127,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>665</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>666</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10138,13 +10141,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
+        <v>667</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>668</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10158,7 +10161,7 @@
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -10178,7 +10181,7 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10200,7 +10203,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>19</v>
@@ -10231,13 +10234,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10262,7 +10265,7 @@
         <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>19</v>
@@ -10276,7 +10279,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>19</v>
@@ -10290,7 +10293,7 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>19</v>
@@ -10324,7 +10327,7 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10352,13 +10355,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10372,13 +10375,13 @@
         <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10386,13 +10389,13 @@
         <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10414,7 +10417,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>19</v>
@@ -10428,7 +10431,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>20</v>
@@ -10439,7 +10442,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B49" t="s">
         <v>257</v>
@@ -10468,7 +10471,7 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10496,7 +10499,7 @@
         <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>19</v>
@@ -10516,7 +10519,7 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10538,7 +10541,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>19</v>
@@ -10558,7 +10561,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10591,7 +10594,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -10600,13 +10603,13 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
+        <v>685</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
         <v>686</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10628,18 +10631,18 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
+        <v>687</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
         <v>688</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -10648,13 +10651,13 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
+        <v>689</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
         <v>690</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10682,7 +10685,7 @@
         <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>19</v>
@@ -10696,13 +10699,13 @@
         <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -10730,13 +10733,13 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10764,7 +10767,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>20</v>
@@ -10790,7 +10793,7 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -10812,13 +10815,13 @@
         <v>486</v>
       </c>
       <c r="D79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -10870,7 +10873,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -10879,7 +10882,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -10893,7 +10896,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>20</v>
@@ -10913,7 +10916,7 @@
         <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -10927,7 +10930,7 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -10941,7 +10944,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
@@ -10955,7 +10958,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -10969,7 +10972,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -10989,7 +10992,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11003,13 +11006,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11017,7 +11020,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
@@ -11031,7 +11034,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
@@ -11045,18 +11048,18 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -11071,7 +11074,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11079,7 +11082,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -11093,7 +11096,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -11113,7 +11116,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11121,7 +11124,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -11141,7 +11144,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -11155,7 +11158,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -11169,7 +11172,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -11203,7 +11206,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11217,7 +11220,7 @@
         <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>19</v>
@@ -11245,7 +11248,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -11259,7 +11262,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>20</v>
@@ -11281,7 +11284,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D44" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
@@ -11317,7 +11320,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -11326,7 +11329,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -11340,7 +11343,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -11354,7 +11357,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>20</v>
@@ -11374,7 +11377,7 @@
         <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -11388,13 +11391,13 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11402,7 +11405,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -11416,13 +11419,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11450,13 +11453,13 @@
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11470,7 +11473,7 @@
         <v>507</v>
       </c>
       <c r="F13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11484,7 +11487,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -11498,7 +11501,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
@@ -11512,7 +11515,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>20</v>
@@ -11532,7 +11535,7 @@
         <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -11560,13 +11563,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11586,12 +11589,12 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -11606,12 +11609,12 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -11620,13 +11623,13 @@
         <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11634,13 +11637,13 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>507</v>
       </c>
       <c r="F28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -11654,13 +11657,13 @@
         <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11668,7 +11671,7 @@
         <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -11682,13 +11685,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11707,7 +11710,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -11716,13 +11719,13 @@
         <v>95</v>
       </c>
       <c r="D35" t="s">
+        <v>732</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
         <v>733</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11730,7 +11733,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>20</v>
@@ -11750,7 +11753,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>19</v>
@@ -11764,13 +11767,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11778,7 +11781,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>20</v>
@@ -11789,7 +11792,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -11798,7 +11801,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
@@ -11812,7 +11815,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
@@ -11826,7 +11829,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
@@ -11840,7 +11843,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -11854,7 +11857,7 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>20</v>
@@ -11874,7 +11877,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>19</v>
@@ -11888,13 +11891,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
@@ -11902,13 +11905,13 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>507</v>
       </c>
       <c r="F50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -11923,10 +11926,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11961,7 +11964,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -11970,7 +11973,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -11984,7 +11987,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -11998,13 +12001,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>743</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>744</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12012,7 +12015,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -12026,7 +12029,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -12044,6 +12047,57 @@
       </c>
       <c r="C8" t="s">
         <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>620</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>595</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -12060,7 +12114,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12434,20 +12488,20 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12456,7 +12510,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -12464,24 +12518,24 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.57855822550831792</v>
+        <v>0.57904411764705888</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.411764705882353</v>
+        <v>15.470588235294118</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -12489,15 +12543,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>31.823529411764707</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>13.411764705882353</v>
+        <v>13.470588235294118</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.57855822550831804</v>
+        <v>0.57904411764705888</v>
       </c>
     </row>
   </sheetData>
@@ -13159,7 +13213,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -14878,7 +14932,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -14912,7 +14966,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -15043,7 +15097,7 @@
         <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>19</v>
@@ -15512,7 +15566,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -16011,7 +16065,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
@@ -16506,7 +16560,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -16910,7 +16964,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -16944,7 +16998,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -17330,7 +17384,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -17886,7 +17940,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
@@ -17985,7 +18039,7 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>19</v>
@@ -18095,7 +18149,7 @@
         <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>19</v>
@@ -18191,7 +18245,7 @@
         <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>19</v>
@@ -18253,7 +18307,7 @@
         <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>19</v>
@@ -18603,7 +18657,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -18640,7 +18694,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
@@ -19041,7 +19095,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>20</v>
@@ -19128,7 +19182,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -19321,7 +19375,7 @@
         <v>507</v>
       </c>
       <c r="F77" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19363,7 +19417,7 @@
         <v>486</v>
       </c>
       <c r="D81" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4738" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2BF4932-68DD-485A-9B0E-593928BF693E}"/>
+  <xr:revisionPtr revIDLastSave="4822" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6846958C-E52C-45A6-B8E4-4BF499140B6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="750">
   <si>
     <t>ROUND</t>
   </si>
@@ -2296,6 +2296,12 @@
   </si>
   <si>
     <t>6-4 3-6 6-4</t>
+  </si>
+  <si>
+    <t>2-6 7-6(0) 6-0</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-4</t>
   </si>
 </sst>
 </file>
@@ -3012,7 +3018,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,7 +3168,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,7 +3728,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.875</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7839,8 +7845,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8885,8 +8891,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10837,8 +10843,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11284,13 +11290,13 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -11926,20 +11932,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12098,6 +12104,172 @@
       </c>
       <c r="F11" t="s">
         <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>553</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>573</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>734</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>689</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>683</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>677</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -12113,8 +12285,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12488,20 +12660,20 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12510,7 +12682,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -12518,15 +12690,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.57904411764705888</v>
+        <v>0.57894736842105265</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12535,7 +12707,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.470588235294118</v>
+        <v>15.705882352941176</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -12543,15 +12715,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>32</v>
+        <v>32.411764705882355</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>13.470588235294118</v>
+        <v>13.647058823529411</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.57904411764705888</v>
+        <v>0.57894736842105265</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4822" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6846958C-E52C-45A6-B8E4-4BF499140B6D}"/>
+  <xr:revisionPtr revIDLastSave="4829" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5539B0FC-382D-470D-9060-77672FDCBA8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="751">
   <si>
     <t>ROUND</t>
   </si>
@@ -2302,6 +2302,9 @@
   </si>
   <si>
     <t>7-6(6) 6-4</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
   </si>
 </sst>
 </file>
@@ -3018,7 +3021,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3728,7 +3731,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.73333333333333328</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11932,10 +11935,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12271,6 +12274,26 @@
       <c r="B26" t="s">
         <v>14</v>
       </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>750</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12286,7 +12309,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12666,14 +12689,14 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12690,7 +12713,7 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
@@ -12698,7 +12721,7 @@
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.57894736842105265</v>
+        <v>0.57971014492753625</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12715,7 +12738,7 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>32.411764705882355</v>
+        <v>32.470588235294116</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
@@ -12723,7 +12746,7 @@
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.57894736842105265</v>
+        <v>0.57971014492753614</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4829" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5539B0FC-382D-470D-9060-77672FDCBA8D}"/>
+  <xr:revisionPtr revIDLastSave="4833" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE83C5C-C8B9-4E58-9C08-79371B3976DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="751">
   <si>
     <t>ROUND</t>
   </si>
@@ -3021,7 +3021,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,7 +3731,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.75</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11935,10 +11935,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" activeCellId="4" sqref="E2:E6 E8:E10 E13:E15 E20:E23 E26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12294,6 +12294,17 @@
       <c r="D27" t="s">
         <v>750</v>
       </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12308,8 +12319,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12689,14 +12700,14 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12713,7 +12724,7 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
@@ -12721,7 +12732,7 @@
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.57971014492753625</v>
+        <v>0.58047016274864371</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12738,7 +12749,7 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>32.470588235294116</v>
+        <v>32.529411764705884</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
@@ -12746,7 +12757,7 @@
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.57971014492753614</v>
+        <v>0.58047016274864371</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4833" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE83C5C-C8B9-4E58-9C08-79371B3976DD}"/>
+  <xr:revisionPtr revIDLastSave="4838" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAEA7FE9-D746-4639-88DA-18059F64017E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="751">
   <si>
     <t>ROUND</t>
   </si>
@@ -3021,7 +3021,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,7 +3731,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11935,10 +11935,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="4" sqref="E2:E6 E8:E10 E13:E15 E20:E23 E26:E27"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" activeCellId="4" sqref="E2:E6 E8:E10 E13:E15 E20:E23 E26:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12305,6 +12305,23 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
+      <c r="D28" t="s">
+        <v>683</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>661</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12319,7 +12336,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -12700,14 +12717,14 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>0.76470588235294112</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12724,7 +12741,7 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
@@ -12732,7 +12749,7 @@
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.58047016274864371</v>
+        <v>0.58122743682310474</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12749,7 +12766,7 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>32.529411764705884</v>
+        <v>32.588235294117645</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
@@ -12757,7 +12774,7 @@
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.58047016274864371</v>
+        <v>0.58122743682310463</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4838" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAEA7FE9-D746-4639-88DA-18059F64017E}"/>
+  <xr:revisionPtr revIDLastSave="4927" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6A08E78-1E85-4148-928E-B0503911B2E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="761">
   <si>
     <t>ROUND</t>
   </si>
@@ -2305,6 +2305,36 @@
   </si>
   <si>
     <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-3</t>
+  </si>
+  <si>
+    <t>6-4 1-6 6-1</t>
+  </si>
+  <si>
+    <t>Nastasja Schunk (GERMANY)</t>
+  </si>
+  <si>
+    <t>2-6 6-2 6-1</t>
+  </si>
+  <si>
+    <t>Katie Boulter (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-3 2-6 6-4</t>
+  </si>
+  <si>
+    <t>BAD HOMBURG OPEN</t>
+  </si>
+  <si>
+    <t>Tamara Zidanšek (SLOVENIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Karolína Muchová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2423,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2405,6 +2435,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3021,7 +3052,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,7 +3202,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,7 +3762,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0.69230769230769229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7848,8 +7879,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8894,7 +8925,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -9858,7 +9889,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11293,8 +11324,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11935,10 +11966,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="4" sqref="E2:E6 E8:E10 E13:E15 E20:E23 E26:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11946,8 +11977,8 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12321,6 +12352,218 @@
       </c>
       <c r="D29" t="s">
         <v>661</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>521</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>753</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>745</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>556</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>697</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>755</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>620</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>757</v>
+      </c>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>602</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>758</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>675</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>693</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F45" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -12334,10 +12577,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12350,7 +12593,7 @@
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12370,7 +12613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12390,8 +12633,9 @@
         <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12411,8 +12655,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12432,8 +12677,9 @@
         <f t="shared" si="0"/>
         <v>0.69230769230769229</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -12454,7 +12700,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -12475,7 +12721,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -12496,7 +12742,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -12517,7 +12763,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -12538,7 +12784,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -12559,7 +12805,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -12580,7 +12826,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -12601,7 +12847,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -12622,7 +12868,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -12643,7 +12889,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -12664,7 +12910,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -12711,20 +12957,20 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12733,7 +12979,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -12741,15 +12987,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.58122743682310474</v>
+        <v>0.58007117437722422</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12758,7 +13004,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.705882352941176</v>
+        <v>15.941176470588236</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -12766,15 +13012,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>32.588235294117645</v>
+        <v>33.058823529411768</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>13.647058823529411</v>
+        <v>13.882352941176471</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.58122743682310463</v>
+        <v>0.58007117437722422</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4927" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6A08E78-1E85-4148-928E-B0503911B2E0}"/>
+  <xr:revisionPtr revIDLastSave="5015" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3550A14D-2D57-4134-97D5-A9E14F09B96D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" firstSheet="11" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="770">
   <si>
     <t>ROUND</t>
   </si>
@@ -2335,6 +2335,33 @@
   </si>
   <si>
     <t>Karolína Muchová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-5 2-0 RETIRED</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Jil Teichmann (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semifinal </t>
+  </si>
+  <si>
+    <t>6-3 2-6 6-3</t>
+  </si>
+  <si>
+    <t>Daria Snigur (UKRAINE)</t>
+  </si>
+  <si>
+    <t>6-2 0-6 6-4</t>
   </si>
 </sst>
 </file>
@@ -2423,19 +2450,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2443,7 +2469,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3052,7 +3088,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,7 +3238,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3762,7 +3798,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69230769230769229</c:v>
+                  <c:v>0.71794871794871795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6777,52 +6813,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C19">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26 D23:D24 F23:F26">
-    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D33 F30:F33 F36:F37">
-    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:D44 F42:F44 D47 F47">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C52 D50 F50:F51">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66 C69">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C73">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C77 D75 D77 F75:F77 F79:F80 F82 F84:F85">
-    <cfRule type="duplicateValues" dxfId="8" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C80">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -7862,10 +7898,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D22 F22">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69 F69:F70">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -7880,7 +7916,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8905,13 +8941,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D10 F10">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D54 F53:F54">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65 F65">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -11966,10 +12002,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" activeCellId="14" sqref="A2 A8 A13 A18 A20 A26 A31 A34 A37 A42 A47 A54 A57 A64 A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11979,7 +12015,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12565,8 +12601,265 @@
       <c r="D47" t="s">
         <v>760</v>
       </c>
+      <c r="E47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>704</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>750</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>675</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>692</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>623</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>761</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>762</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>764</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>476</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>398</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>765</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>683</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>766</v>
+      </c>
+      <c r="D61" t="s">
+        <v>725</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>620</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>726</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>710</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>714</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F65" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>768</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>769</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D57 F57:F62 F64">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -12579,8 +12872,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12633,7 +12926,7 @@
         <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -12655,7 +12948,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -12677,7 +12970,7 @@
         <f t="shared" si="0"/>
         <v>0.69230769230769229</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -12957,20 +13250,20 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>0.71794871794871795</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12979,23 +13272,23 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.58007117437722422</v>
+        <v>0.58434782608695657</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -13004,23 +13297,23 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.941176470588236</v>
+        <v>16.235294117647058</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
-        <v>1.3529411764705883</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>33.058823529411768</v>
+        <v>33.823529411764703</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>13.882352941176471</v>
+        <v>14.058823529411764</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.58007117437722422</v>
+        <v>0.58434782608695646</v>
       </c>
     </row>
   </sheetData>
@@ -18816,55 +19109,55 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C45:C49">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:D58 F54:F58 D60:D61 F60:F61 D63:D65 F63:F65 F68">
-    <cfRule type="duplicateValues" dxfId="36" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C61">
-    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C66">
-    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C72 C74:D74 D75:D76 F74:F77 D79 F79:F80">
-    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:C88">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87 F87:F88">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5015" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3550A14D-2D57-4134-97D5-A9E14F09B96D}"/>
+  <xr:revisionPtr revIDLastSave="5020" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75997F87-6296-4811-9947-48FB22D949E9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" firstSheet="11" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -1713,9 +1713,6 @@
     <t>2-6 6-3 7-5</t>
   </si>
   <si>
-    <t>Alison Riske (USA)</t>
-  </si>
-  <si>
     <t>Alexandra Dulgheru (ROMANIA)</t>
   </si>
   <si>
@@ -2362,6 +2359,9 @@
   </si>
   <si>
     <t>6-2 0-6 6-4</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2908,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Simona Halep (ROMANIA): YTD Wins-Losses</a:t>
+              <a:t>Simona Halep (ROMANIA):</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3679,7 +3687,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -5214,7 +5221,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8C31A373-524C-46DB-B8B5-5ED09ADA9231}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5296,6 +5303,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5865,7 +5876,7 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5907,7 +5918,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>20</v>
@@ -5983,7 +5994,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -6022,7 +6033,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -6031,7 +6042,7 @@
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -6093,7 +6104,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,7 +6276,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>553</v>
+        <v>769</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
@@ -6293,7 +6304,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
@@ -6327,7 +6338,7 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -6352,7 +6363,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B50" t="s">
         <v>257</v>
@@ -6361,7 +6372,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>19</v>
@@ -6395,7 +6406,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6415,13 +6426,13 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -6450,7 +6461,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6464,7 +6475,7 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6492,12 +6503,12 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -6512,7 +6523,7 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6534,7 +6545,7 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>19</v>
@@ -6568,7 +6579,7 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6582,13 +6593,13 @@
         <v>145</v>
       </c>
       <c r="D68" t="s">
+        <v>565</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
         <v>566</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6596,7 +6607,7 @@
         <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>19</v>
@@ -6630,7 +6641,7 @@
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6700,7 +6711,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>20</v>
@@ -6720,7 +6731,7 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>19</v>
@@ -6734,13 +6745,13 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
+        <v>569</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
         <v>570</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6760,7 +6771,7 @@
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6917,13 +6928,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>573</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,7 +6962,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,7 +7010,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7039,12 +7050,12 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -7067,7 +7078,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
@@ -7087,7 +7098,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7115,7 +7126,7 @@
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -7163,7 +7174,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,7 +7216,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>20</v>
@@ -7225,7 +7236,7 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7273,7 +7284,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7315,13 +7326,13 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7335,7 +7346,7 @@
         <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -7363,13 +7374,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
+        <v>586</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
         <v>587</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7383,7 +7394,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7397,7 +7408,7 @@
         <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
@@ -7445,7 +7456,7 @@
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,7 +7470,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7473,13 +7484,13 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
+        <v>591</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
         <v>592</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7487,7 +7498,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>19</v>
@@ -7501,7 +7512,7 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>19</v>
@@ -7521,7 +7532,7 @@
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7540,7 +7551,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -7549,7 +7560,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>19</v>
@@ -7583,7 +7594,7 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7597,7 +7608,7 @@
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7611,12 +7622,12 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -7639,7 +7650,7 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>19</v>
@@ -7721,7 +7732,7 @@
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7769,7 +7780,7 @@
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7865,7 +7876,7 @@
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,7 +7977,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7974,13 +7985,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>602</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8005,7 +8016,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -8014,7 +8025,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
@@ -8034,12 +8045,12 @@
         <v>507</v>
       </c>
       <c r="F8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -8082,7 +8093,7 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
@@ -8096,7 +8107,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
@@ -8116,7 +8127,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8124,13 +8135,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8172,7 +8183,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>20</v>
@@ -8192,7 +8203,7 @@
         <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
@@ -8212,7 +8223,7 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8234,7 +8245,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -8268,7 +8279,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8282,7 +8293,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>19</v>
@@ -8302,7 +8313,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8310,7 +8321,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -8344,7 +8355,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8386,7 +8397,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>19</v>
@@ -8420,7 +8431,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8442,7 +8453,7 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>20</v>
@@ -8453,7 +8464,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B43" t="s">
         <v>257</v>
@@ -8462,13 +8473,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8482,7 +8493,7 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8496,7 +8507,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8510,7 +8521,7 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -8524,7 +8535,7 @@
         <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>19</v>
@@ -8538,13 +8549,13 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
+        <v>620</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
         <v>621</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,18 +8577,18 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
@@ -8606,7 +8617,7 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8614,18 +8625,18 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -8640,7 +8651,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8662,7 +8673,7 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>19</v>
@@ -8687,7 +8698,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -8696,7 +8707,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>19</v>
@@ -8724,13 +8735,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8778,7 +8789,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -8792,7 +8803,7 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>20</v>
@@ -8812,13 +8823,13 @@
         <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>553</v>
+        <v>769</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -8832,7 +8843,7 @@
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -8854,7 +8865,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>19</v>
@@ -8868,7 +8879,7 @@
         <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>19</v>
@@ -8882,13 +8893,13 @@
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -8930,7 +8941,7 @@
         <v>486</v>
       </c>
       <c r="D81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>19</v>
@@ -8961,8 +8972,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9006,7 +9017,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -9020,7 +9031,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -9034,7 +9045,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>19</v>
@@ -9062,13 +9073,13 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9082,7 +9093,7 @@
         <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -9096,7 +9107,7 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -9116,7 +9127,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9124,7 +9135,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -9158,7 +9169,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9172,7 +9183,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9186,7 +9197,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
@@ -9214,7 +9225,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -9234,12 +9245,12 @@
         <v>507</v>
       </c>
       <c r="F19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -9248,7 +9259,7 @@
         <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -9262,13 +9273,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>643</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>644</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9276,7 +9287,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -9296,7 +9307,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9304,7 +9315,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>20</v>
@@ -9324,13 +9335,13 @@
         <v>95</v>
       </c>
       <c r="D27" t="s">
+        <v>647</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
         <v>648</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9344,7 +9355,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9366,13 +9377,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>650</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
         <v>651</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9392,7 +9403,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9400,7 +9411,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>20</v>
@@ -9420,7 +9431,7 @@
         <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>19</v>
@@ -9434,7 +9445,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>19</v>
@@ -9448,7 +9459,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>19</v>
@@ -9482,7 +9493,7 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>19</v>
@@ -9502,7 +9513,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9510,7 +9521,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
@@ -9558,7 +9569,7 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>553</v>
+        <v>769</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -9572,7 +9583,7 @@
         <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>19</v>
@@ -9600,7 +9611,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>19</v>
@@ -9620,7 +9631,7 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9696,12 +9707,12 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -9710,13 +9721,13 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9738,7 +9749,7 @@
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>19</v>
@@ -9772,12 +9783,12 @@
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -9786,13 +9797,13 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
+        <v>658</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
         <v>659</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9828,7 +9839,7 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>19</v>
@@ -9848,7 +9859,7 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9902,7 +9913,7 @@
         <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>20</v>
@@ -9924,8 +9935,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10059,7 +10070,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
@@ -10099,7 +10110,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10113,7 +10124,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10121,7 +10132,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>20</v>
@@ -10141,13 +10152,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10180,7 +10191,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -10203,13 +10214,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>664</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>665</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10217,13 +10228,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
+        <v>666</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>667</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10237,7 +10248,7 @@
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -10257,7 +10268,7 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10279,7 +10290,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>19</v>
@@ -10310,13 +10321,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10341,7 +10352,7 @@
         <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>19</v>
@@ -10355,7 +10366,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>19</v>
@@ -10369,7 +10380,7 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>19</v>
@@ -10403,7 +10414,7 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10431,13 +10442,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10451,13 +10462,13 @@
         <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10465,13 +10476,13 @@
         <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10493,7 +10504,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>19</v>
@@ -10507,7 +10518,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>20</v>
@@ -10518,7 +10529,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B49" t="s">
         <v>257</v>
@@ -10547,7 +10558,7 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10575,7 +10586,7 @@
         <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>19</v>
@@ -10595,7 +10606,7 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10617,7 +10628,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>19</v>
@@ -10637,7 +10648,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10670,7 +10681,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -10679,13 +10690,13 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
+        <v>684</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
         <v>685</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10707,18 +10718,18 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
+        <v>686</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
         <v>687</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -10727,13 +10738,13 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
+        <v>688</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
         <v>689</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10761,7 +10772,7 @@
         <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>19</v>
@@ -10775,13 +10786,13 @@
         <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -10809,13 +10820,13 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10843,7 +10854,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>20</v>
@@ -10869,7 +10880,7 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -10891,13 +10902,13 @@
         <v>486</v>
       </c>
       <c r="D79" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -10913,8 +10924,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10949,7 +10960,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -10958,7 +10969,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -10972,7 +10983,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>20</v>
@@ -10992,7 +11003,7 @@
         <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -11006,7 +11017,7 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -11020,7 +11031,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
@@ -11034,7 +11045,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -11048,7 +11059,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -11068,7 +11079,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11082,13 +11093,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11096,7 +11107,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
@@ -11110,7 +11121,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
@@ -11124,18 +11135,18 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -11150,7 +11161,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11158,7 +11169,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -11172,7 +11183,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -11192,7 +11203,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11200,7 +11211,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -11220,7 +11231,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -11234,7 +11245,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -11248,7 +11259,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -11282,7 +11293,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11296,7 +11307,7 @@
         <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>19</v>
@@ -11324,7 +11335,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -11338,7 +11349,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>20</v>
@@ -11361,7 +11372,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11396,7 +11407,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -11405,7 +11416,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -11419,7 +11430,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -11433,7 +11444,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>20</v>
@@ -11453,7 +11464,7 @@
         <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -11467,13 +11478,13 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11481,7 +11492,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -11495,13 +11506,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11529,13 +11540,13 @@
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11549,7 +11560,7 @@
         <v>507</v>
       </c>
       <c r="F13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11563,7 +11574,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -11577,7 +11588,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
@@ -11591,7 +11602,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>20</v>
@@ -11611,7 +11622,7 @@
         <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -11639,13 +11650,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11665,12 +11676,12 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -11685,12 +11696,12 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -11699,13 +11710,13 @@
         <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11713,13 +11724,13 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>507</v>
       </c>
       <c r="F28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -11739,7 +11750,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11747,7 +11758,7 @@
         <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -11761,13 +11772,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11786,7 +11797,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -11795,13 +11806,13 @@
         <v>95</v>
       </c>
       <c r="D35" t="s">
+        <v>731</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
         <v>732</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11809,7 +11820,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>20</v>
@@ -11829,7 +11840,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>19</v>
@@ -11843,13 +11854,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11857,7 +11868,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>20</v>
@@ -11868,7 +11879,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -11877,7 +11888,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
@@ -11891,7 +11902,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
@@ -11905,7 +11916,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
@@ -11919,7 +11930,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -11933,7 +11944,7 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>20</v>
@@ -11953,7 +11964,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>19</v>
@@ -11967,13 +11978,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
@@ -11981,13 +11992,13 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>507</v>
       </c>
       <c r="F50" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -12004,8 +12015,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" activeCellId="14" sqref="A2 A8 A13 A18 A20 A26 A31 A34 A37 A42 A47 A54 A57 A64 A67"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12040,7 +12051,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -12049,7 +12060,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>
@@ -12063,7 +12074,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -12077,13 +12088,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>743</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12091,7 +12102,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -12105,7 +12116,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -12125,7 +12136,7 @@
         <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -12139,7 +12150,7 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -12153,7 +12164,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
@@ -12173,7 +12184,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12187,7 +12198,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>553</v>
+        <v>769</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
@@ -12201,7 +12212,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
@@ -12215,7 +12226,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -12229,13 +12240,13 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12249,7 +12260,7 @@
         <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>20</v>
@@ -12260,7 +12271,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -12269,7 +12280,7 @@
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -12283,7 +12294,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -12325,13 +12336,13 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12359,7 +12370,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -12373,7 +12384,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>19</v>
@@ -12387,7 +12398,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>20</v>
@@ -12427,7 +12438,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -12441,13 +12452,13 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -12455,18 +12466,18 @@
         <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B37" t="s">
         <v>257</v>
@@ -12489,7 +12500,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>19</v>
@@ -12503,7 +12514,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -12517,18 +12528,18 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B42" t="s">
         <v>257</v>
@@ -12537,13 +12548,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -12551,7 +12562,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
@@ -12565,7 +12576,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>19</v>
@@ -12579,13 +12590,13 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>507</v>
       </c>
       <c r="F45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -12599,7 +12610,7 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -12627,7 +12638,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>19</v>
@@ -12641,7 +12652,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>19</v>
@@ -12655,7 +12666,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>19</v>
@@ -12669,7 +12680,7 @@
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>20</v>
@@ -12680,7 +12691,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -12689,7 +12700,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>19</v>
@@ -12703,18 +12714,18 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
+        <v>761</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
         <v>762</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -12751,7 +12762,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>19</v>
@@ -12765,7 +12776,7 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>19</v>
@@ -12776,10 +12787,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>19</v>
@@ -12793,18 +12804,18 @@
         <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
@@ -12813,7 +12824,7 @@
         <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>19</v>
@@ -12827,13 +12838,13 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>507</v>
       </c>
       <c r="F65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -12847,13 +12858,13 @@
         <v>145</v>
       </c>
       <c r="D67" t="s">
+        <v>767</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
         <v>768</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" t="s">
-        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -12872,7 +12883,7 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -13293,7 +13304,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
@@ -13975,7 +13986,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -15694,7 +15705,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -15728,7 +15739,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -15859,7 +15870,7 @@
         <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>19</v>
@@ -16328,7 +16339,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -16827,7 +16838,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
@@ -17322,7 +17333,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -17726,7 +17737,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -17760,7 +17771,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -18146,7 +18157,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -18702,7 +18713,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
@@ -18801,7 +18812,7 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>19</v>
@@ -18911,7 +18922,7 @@
         <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>19</v>
@@ -19007,7 +19018,7 @@
         <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>19</v>
@@ -19069,7 +19080,7 @@
         <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>19</v>
@@ -19419,7 +19430,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -19456,7 +19467,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
@@ -19857,7 +19868,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>20</v>
@@ -19944,7 +19955,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -20137,7 +20148,7 @@
         <v>507</v>
       </c>
       <c r="F77" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20179,7 +20190,7 @@
         <v>486</v>
       </c>
       <c r="D81" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5020" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75997F87-6296-4811-9947-48FB22D949E9}"/>
+  <xr:revisionPtr revIDLastSave="5022" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9831779-516C-49B3-A3B3-AF27B8D28219}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -30,8 +30,8 @@
     <sheet name="2020" sheetId="27" r:id="rId15"/>
     <sheet name="2021" sheetId="28" r:id="rId16"/>
     <sheet name="2022" sheetId="31" r:id="rId17"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId18"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId19"/>
+    <sheet name="Stats" sheetId="1" r:id="rId18"/>
+    <sheet name="Wins-Losses" sheetId="32" r:id="rId19"/>
     <sheet name="Winning Percentile Range" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2962,7 +2962,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2983,7 +2983,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3043,7 +3043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$18</c:f>
+              <c:f>Stats!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3112,7 +3112,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3133,7 +3133,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3193,7 +3193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$18</c:f>
+              <c:f>Stats!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3643,7 +3643,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3692,7 +3692,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3752,7 +3752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$18</c:f>
+              <c:f>Stats!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5221,7 +5221,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8C31A373-524C-46DB-B8B5-5ED09ADA9231}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5243,7 +5243,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5276,7 +5276,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5303,10 +5303,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5615,18 +5611,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5646,7 +5642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5666,7 +5662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5700,7 +5696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5745,17 +5741,17 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5795,7 +5791,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5823,7 +5819,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5885,7 +5881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5899,7 +5895,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5913,7 +5909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5955,7 +5951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +5985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6017,7 +6013,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6031,7 +6027,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +6061,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6079,7 +6075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6093,7 +6089,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6121,7 +6117,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6141,7 +6137,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6155,7 +6151,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6169,7 +6165,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6183,7 +6179,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6231,7 +6227,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6245,7 +6241,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6265,7 +6261,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6299,7 +6295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6327,7 +6323,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6347,7 +6343,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6361,7 +6357,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6395,7 +6391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6409,7 +6405,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6429,8 +6425,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6464,7 +6460,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6478,7 +6474,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6526,7 +6522,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6540,7 +6536,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6616,7 +6612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6630,7 +6626,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6644,7 +6640,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6658,7 +6654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6740,7 +6736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6774,7 +6770,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6794,7 +6790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6808,7 +6804,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6835,41 +6831,41 @@
   <conditionalFormatting sqref="C23:C26 D23:D24 F23:F26">
     <cfRule type="duplicateValues" dxfId="18" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:D33 F30:F33 F36:F37">
-    <cfRule type="duplicateValues" dxfId="17" priority="30"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C52 D50 F50:F51">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C60">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C66 C69">
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C73">
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:C77 D75 D77 F75:F77 F79:F80 F82 F84:F85">
+    <cfRule type="duplicateValues" dxfId="11" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79:C80">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:D33 F30:F33 F36:F37">
+    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:D44 F42:F44 D47 F47">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C52 D50 F50:F51">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C66 C69">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C73">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C77 D75 D77 F75:F77 F79:F80 F82 F84:F85">
-    <cfRule type="duplicateValues" dxfId="9" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79:C80">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6887,17 +6883,17 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6917,7 +6913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6937,7 +6933,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6951,7 +6947,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6965,7 +6961,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -6985,7 +6981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -7002,7 +6998,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7013,7 +7009,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7033,7 +7029,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7053,7 +7049,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7073,7 +7069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7087,7 +7083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7101,7 +7097,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7115,7 +7111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7135,7 +7131,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7149,7 +7145,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7163,7 +7159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7177,7 +7173,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7194,7 +7190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7205,7 +7201,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7225,7 +7221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7245,7 +7241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7259,7 +7255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7287,7 +7283,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7315,7 +7311,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7335,7 +7331,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7355,7 +7351,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7369,7 +7365,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7397,7 +7393,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7417,7 +7413,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7431,7 +7427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7445,7 +7441,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7459,7 +7455,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7473,7 +7469,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7493,7 +7489,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7521,7 +7517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7535,7 +7531,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7549,7 +7545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7569,7 +7565,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7611,7 +7607,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7625,7 +7621,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7645,7 +7641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7659,7 +7655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7673,7 +7669,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7687,7 +7683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7707,7 +7703,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7749,7 +7745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7783,7 +7779,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7811,7 +7807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7845,7 +7841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7859,7 +7855,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7879,7 +7875,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7893,7 +7889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7930,17 +7926,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7960,7 +7956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7980,7 +7976,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -7994,7 +7990,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8014,7 +8010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8034,7 +8030,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8048,7 +8044,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8068,7 +8064,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8082,7 +8078,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8116,7 +8112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8144,7 +8140,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8178,7 +8174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8188,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8212,7 +8208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8226,7 +8222,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8240,7 +8236,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8254,7 +8250,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8268,7 +8264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8282,7 +8278,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8302,7 +8298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8316,7 +8312,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8330,7 +8326,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8344,7 +8340,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8358,7 +8354,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8378,7 +8374,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8392,7 +8388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8406,7 +8402,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8420,7 +8416,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8434,7 +8430,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8448,7 +8444,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8482,7 +8478,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8496,7 +8492,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8510,7 +8506,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8530,7 +8526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8544,7 +8540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8558,7 +8554,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8568,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8586,7 +8582,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8606,7 +8602,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8620,7 +8616,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8668,7 +8664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8696,7 +8692,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8716,7 +8712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +8726,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8772,7 +8768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8832,7 +8828,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8846,7 +8842,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8860,7 +8856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8874,7 +8870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8888,7 +8884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8922,7 +8918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8936,7 +8932,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8976,17 +8972,17 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9006,7 +9002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9026,7 +9022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9040,7 +9036,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9054,7 +9050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9068,7 +9064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9082,7 +9078,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9102,7 +9098,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9116,7 +9112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9130,7 +9126,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9144,7 +9140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9158,7 +9154,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9172,7 +9168,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9186,7 +9182,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9206,7 +9202,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9220,7 +9216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9234,7 +9230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9248,7 +9244,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9268,7 +9264,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9282,7 +9278,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9296,7 +9292,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9310,7 +9306,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9324,7 +9320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9344,7 +9340,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9358,7 +9354,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9375,7 +9371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9406,7 +9402,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9420,7 +9416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9440,7 +9436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9454,7 +9450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9468,7 +9464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9482,7 +9478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9530,7 +9526,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9544,7 +9540,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9558,7 +9554,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9578,7 +9574,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9592,7 +9588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9606,7 +9602,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9620,7 +9616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9634,7 +9630,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9648,7 +9644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9662,7 +9658,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9682,7 +9678,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9696,7 +9692,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9730,7 +9726,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9744,7 +9740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9772,7 +9768,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9786,7 +9782,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9806,7 +9802,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9820,7 +9816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9834,7 +9830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9848,7 +9844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9862,7 +9858,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9882,7 +9878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9902,7 +9898,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9939,17 +9935,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9969,7 +9965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -9989,7 +9985,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10009,7 +10005,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10023,7 +10019,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10037,7 +10033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10051,7 +10047,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10068,7 +10064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10079,7 +10075,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10099,7 +10095,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10113,7 +10109,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10127,7 +10123,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10141,7 +10137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +10171,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10189,7 +10185,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10209,7 +10205,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10223,7 +10219,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10237,7 +10233,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10257,7 +10253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +10267,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10285,7 +10281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10299,7 +10295,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10313,7 +10309,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10341,7 +10337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10361,7 +10357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10375,7 +10371,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10389,7 +10385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10403,7 +10399,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10417,7 +10413,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10431,7 +10427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10451,7 +10447,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10471,7 +10467,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10485,7 +10481,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10499,7 +10495,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10513,7 +10509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10527,7 +10523,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10547,7 +10543,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10561,7 +10557,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10575,7 +10571,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10595,7 +10591,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10609,7 +10605,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10623,7 +10619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10637,7 +10633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10651,7 +10647,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10665,7 +10661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10679,7 +10675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10699,7 +10695,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10713,7 +10709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10747,7 +10743,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10761,7 +10757,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10781,7 +10777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10795,7 +10791,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10815,7 +10811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10849,7 +10845,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10863,7 +10859,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10883,7 +10879,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10928,17 +10924,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10958,7 +10954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10978,7 +10974,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -10992,7 +10988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11012,7 +11008,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11040,7 +11036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11054,7 +11050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11068,7 +11064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11082,7 +11078,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11102,7 +11098,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11116,7 +11112,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11130,7 +11126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11144,7 +11140,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11164,7 +11160,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11178,7 +11174,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11192,7 +11188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11206,7 +11202,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11220,7 +11216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11240,7 +11236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11254,7 +11250,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11268,7 +11264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11296,7 +11292,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11316,7 +11312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11330,7 +11326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11344,7 +11340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11375,17 +11371,17 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11405,7 +11401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11425,7 +11421,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11439,7 +11435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11473,7 +11469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11487,7 +11483,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11501,7 +11497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11515,7 +11511,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11529,7 +11525,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11563,7 +11559,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11583,7 +11579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11597,7 +11593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11611,7 +11607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11631,7 +11627,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11645,7 +11641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11659,7 +11655,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11679,7 +11675,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11699,7 +11695,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11719,7 +11715,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11733,7 +11729,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11753,7 +11749,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11781,7 +11777,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11795,7 +11791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11815,7 +11811,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11829,7 +11825,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11849,7 +11845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11863,7 +11859,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11877,7 +11873,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11897,7 +11893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11911,7 +11907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11925,7 +11921,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11939,7 +11935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11953,7 +11949,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11973,7 +11969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -11987,7 +11983,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12019,17 +12015,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12049,7 +12045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12069,7 +12065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12083,7 +12079,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12097,7 +12093,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12111,7 +12107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12125,7 +12121,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12145,7 +12141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12159,7 +12155,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12173,7 +12169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12187,7 +12183,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12207,7 +12203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12221,7 +12217,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12235,7 +12231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12249,7 +12245,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12269,7 +12265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12289,7 +12285,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12303,7 +12299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12317,7 +12313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12331,7 +12327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12345,7 +12341,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12365,7 +12361,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12379,7 +12375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12393,7 +12389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12407,7 +12403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12427,7 +12423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12441,7 +12437,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12461,7 +12457,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12475,7 +12471,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12509,7 +12505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12523,7 +12519,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12537,7 +12533,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12557,7 +12553,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12571,7 +12567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12585,7 +12581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12599,7 +12595,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12619,7 +12615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12647,7 +12643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12661,7 +12657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12675,7 +12671,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12689,7 +12685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12709,7 +12705,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12723,7 +12719,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12743,7 +12739,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12757,7 +12753,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12771,7 +12767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12785,7 +12781,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12799,7 +12795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12813,7 +12809,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12833,7 +12829,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12847,7 +12843,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12883,21 +12879,21 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12917,7 +12913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12939,7 +12935,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12961,7 +12957,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12983,7 +12979,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13004,7 +13000,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13025,7 +13021,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13046,7 +13042,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13067,7 +13063,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13088,7 +13084,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13109,7 +13105,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13130,7 +13126,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13151,7 +13147,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13172,7 +13168,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13193,7 +13189,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13214,7 +13210,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13235,7 +13231,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13256,7 +13252,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13277,7 +13273,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -13302,7 +13298,7 @@
         <v>0.58434782608695657</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>722</v>
       </c>
@@ -13353,17 +13349,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13383,7 +13379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13403,7 +13399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13417,7 +13413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -13431,7 +13427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -13445,7 +13441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -13459,7 +13455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13479,7 +13475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -13493,7 +13489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -13507,7 +13503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -13521,7 +13517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -13535,7 +13531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13553,17 +13549,17 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13583,7 +13579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13603,7 +13599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13617,7 +13613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13637,7 +13633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13651,7 +13647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13665,7 +13661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13679,7 +13675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13693,7 +13689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13713,7 +13709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13733,7 +13729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13747,7 +13743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13761,7 +13757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13775,7 +13771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13789,7 +13785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -13809,7 +13805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -13823,7 +13819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -13837,7 +13833,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13857,7 +13853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13871,7 +13867,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -13885,7 +13881,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -13899,7 +13895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -13913,7 +13909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -13933,7 +13929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -13947,7 +13943,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -13961,7 +13957,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -13975,7 +13971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -13989,7 +13985,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -14003,7 +13999,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14023,7 +14019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14043,7 +14039,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14057,7 +14053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14077,8 +14073,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14098,7 +14094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14112,7 +14108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14126,7 +14122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -14158,17 +14154,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14188,7 +14184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -14208,7 +14204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -14222,7 +14218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -14236,7 +14232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -14250,7 +14246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14270,7 +14266,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>61</v>
       </c>
@@ -14284,7 +14280,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -14304,7 +14300,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -14318,7 +14314,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -14338,7 +14334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -14352,7 +14348,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -14366,7 +14362,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -14386,7 +14382,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -14400,7 +14396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -14414,7 +14410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -14434,7 +14430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14448,7 +14444,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14462,7 +14458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -14476,7 +14472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -14490,7 +14486,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -14510,7 +14506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -14524,7 +14520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14534,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14558,7 +14554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -14572,7 +14568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -14592,7 +14588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -14606,7 +14602,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -14626,7 +14622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -14646,7 +14642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -14660,7 +14656,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14674,7 +14670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -14694,7 +14690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -14708,7 +14704,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -14722,7 +14718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -14736,7 +14732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -14750,7 +14746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -14770,7 +14766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -14790,7 +14786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -14810,7 +14806,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -14824,7 +14820,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -14838,8 +14834,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -14859,7 +14855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -14873,7 +14869,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14893,7 +14889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14907,7 +14903,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>25</v>
       </c>
@@ -14921,7 +14917,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -14935,7 +14931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -14955,7 +14951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14969,7 +14965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -14983,7 +14979,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -14997,7 +14993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -15017,7 +15013,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -15049,17 +15045,17 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15079,7 +15075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -15099,7 +15095,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -15119,7 +15115,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -15133,7 +15129,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15153,7 +15149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -15167,7 +15163,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -15181,7 +15177,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -15195,7 +15191,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -15215,7 +15211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -15229,7 +15225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -15243,7 +15239,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -15257,7 +15253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -15271,7 +15267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -15285,7 +15281,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -15305,7 +15301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -15319,7 +15315,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -15333,7 +15329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -15347,7 +15343,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -15367,7 +15363,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -15381,7 +15377,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -15395,7 +15391,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15409,7 +15405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15423,7 +15419,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -15437,7 +15433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -15451,7 +15447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -15471,7 +15467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -15491,7 +15487,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -15505,7 +15501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -15519,7 +15515,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>145</v>
       </c>
@@ -15533,7 +15529,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -15553,7 +15549,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -15567,7 +15563,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -15587,7 +15583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -15607,7 +15603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -15621,7 +15617,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -15649,7 +15645,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -15669,7 +15665,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -15689,7 +15685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -15703,7 +15699,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>725</v>
       </c>
@@ -15723,7 +15719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>61</v>
       </c>
@@ -15737,7 +15733,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -15757,7 +15753,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -15771,7 +15767,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15785,7 +15781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -15805,7 +15801,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>61</v>
       </c>
@@ -15819,7 +15815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -15839,7 +15835,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -15859,7 +15855,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -15879,7 +15875,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -15893,7 +15889,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -15907,7 +15903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -15921,7 +15917,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -15941,7 +15937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>61</v>
       </c>
@@ -15955,7 +15951,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -15975,7 +15971,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15989,7 +15985,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>25</v>
       </c>
@@ -16003,7 +15999,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>31</v>
       </c>
@@ -16017,7 +16013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>32</v>
       </c>
@@ -16031,7 +16027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -16051,7 +16047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -16071,7 +16067,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -16103,17 +16099,17 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16133,7 +16129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -16153,7 +16149,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -16167,7 +16163,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16181,7 +16177,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -16201,7 +16197,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -16215,7 +16211,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -16229,7 +16225,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -16249,7 +16245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -16263,7 +16259,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -16277,7 +16273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -16297,7 +16293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -16317,7 +16313,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -16337,7 +16333,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -16357,7 +16353,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -16371,7 +16367,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -16391,7 +16387,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>95</v>
       </c>
@@ -16405,7 +16401,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -16425,7 +16421,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16439,7 +16435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16454,7 +16450,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -16469,7 +16465,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -16484,7 +16480,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -16504,7 +16500,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16524,7 +16520,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -16538,7 +16534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -16552,7 +16548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -16572,7 +16568,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -16592,7 +16588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -16612,7 +16608,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -16626,7 +16622,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -16646,7 +16642,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -16660,7 +16656,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -16680,7 +16676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -16700,7 +16696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -16714,7 +16710,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -16734,7 +16730,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -16754,7 +16750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -16768,7 +16764,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -16782,7 +16778,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -16796,7 +16792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -16816,7 +16812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -16836,7 +16832,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>720</v>
       </c>
@@ -16856,7 +16852,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -16870,7 +16866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -16884,7 +16880,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -16898,7 +16894,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -16918,7 +16914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -16938,7 +16934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -16952,7 +16948,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -16972,7 +16968,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16986,7 +16982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -17006,7 +17002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -17020,7 +17016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -17034,7 +17030,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>31</v>
       </c>
@@ -17066,17 +17062,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17096,7 +17092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -17116,7 +17112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17136,7 +17132,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -17150,7 +17146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -17164,7 +17160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -17184,7 +17180,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -17204,7 +17200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -17224,7 +17220,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -17238,7 +17234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -17252,7 +17248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -17272,7 +17268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -17286,7 +17282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -17300,7 +17296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -17314,7 +17310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17328,10 +17324,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17351,7 +17347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -17365,7 +17361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -17379,8 +17375,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -17400,7 +17396,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>95</v>
       </c>
@@ -17414,7 +17410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -17448,7 +17444,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17462,7 +17458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17476,7 +17472,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -17496,7 +17492,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -17510,7 +17506,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -17525,7 +17521,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -17539,7 +17535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -17559,7 +17555,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -17579,7 +17575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -17599,7 +17595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -17613,7 +17609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -17627,7 +17623,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -17641,7 +17637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -17655,7 +17651,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -17675,7 +17671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -17695,7 +17691,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17715,7 +17711,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -17735,7 +17731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -17755,7 +17751,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -17769,7 +17765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -17789,7 +17785,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -17809,7 +17805,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>95</v>
       </c>
@@ -17823,7 +17819,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>291</v>
       </c>
@@ -17843,7 +17839,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -17857,7 +17853,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -17877,7 +17873,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -17897,7 +17893,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -17911,7 +17907,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -17931,7 +17927,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17963,17 +17959,17 @@
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17993,7 +17989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -18013,7 +18009,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -18027,7 +18023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18047,7 +18043,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -18061,7 +18057,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18081,7 +18077,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -18101,7 +18097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -18121,7 +18117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -18135,7 +18131,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -18155,7 +18151,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -18175,7 +18171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -18189,7 +18185,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -18209,7 +18205,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -18223,7 +18219,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -18237,7 +18233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -18257,7 +18253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -18291,7 +18287,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -18311,7 +18307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -18325,7 +18321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -18339,7 +18335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -18353,7 +18349,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -18367,7 +18363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -18381,7 +18377,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -18395,7 +18391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -18415,7 +18411,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>450</v>
       </c>
@@ -18435,7 +18431,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -18449,7 +18445,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -18463,7 +18459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -18477,7 +18473,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -18491,7 +18487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -18511,7 +18507,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18525,7 +18521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18539,7 +18535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -18553,7 +18549,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -18567,7 +18563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -18587,7 +18583,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -18601,7 +18597,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -18621,7 +18617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -18635,7 +18631,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -18649,7 +18645,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -18663,7 +18659,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>32</v>
       </c>
@@ -18677,7 +18673,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -18697,7 +18693,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -18711,7 +18707,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -18731,7 +18727,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>16</v>
       </c>
@@ -18745,7 +18741,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -18759,7 +18755,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -18773,7 +18769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -18793,7 +18789,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -18807,7 +18803,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18821,7 +18817,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -18835,7 +18831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>32</v>
       </c>
@@ -18849,7 +18845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -18869,7 +18865,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>95</v>
       </c>
@@ -18883,7 +18879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -18897,7 +18893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -18911,7 +18907,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -18931,7 +18927,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -18945,7 +18941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -18959,7 +18955,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>423</v>
       </c>
@@ -18979,7 +18975,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -18999,7 +18995,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>25</v>
       </c>
@@ -19013,7 +19009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>31</v>
       </c>
@@ -19027,7 +19023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>32</v>
       </c>
@@ -19041,7 +19037,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -19061,7 +19057,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>486</v>
       </c>
@@ -19075,7 +19071,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>486</v>
       </c>
@@ -19089,7 +19085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>31</v>
       </c>
@@ -19103,7 +19099,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>32</v>
       </c>
@@ -19122,53 +19118,53 @@
   <conditionalFormatting sqref="C45:C49">
     <cfRule type="duplicateValues" dxfId="38" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:D58 F54:F58 D60:D61 F60:F61 D63:D65 F63:F65 F68">
-    <cfRule type="duplicateValues" dxfId="37" priority="16"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C60:C61">
-    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C66">
-    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C72 C74:D74 D75:D76 F74:F77 D79 F79:F80">
-    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:C88">
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C94">
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:D58 F54:F58 D60:D61 F60:F61 D63:D65 F63:F65 F68">
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86:C88">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87 F87:F88">
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19186,17 +19182,17 @@
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19216,7 +19212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -19236,7 +19232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -19256,7 +19252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -19270,7 +19266,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -19284,7 +19280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -19298,7 +19294,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -19312,7 +19308,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -19332,7 +19328,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -19352,7 +19348,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -19366,7 +19362,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -19380,7 +19376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -19394,7 +19390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19408,7 +19404,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>394</v>
       </c>
@@ -19428,7 +19424,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -19448,7 +19444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -19462,7 +19458,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -19476,7 +19472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -19490,7 +19486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -19504,7 +19500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>502</v>
       </c>
@@ -19524,7 +19520,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -19544,7 +19540,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -19558,7 +19554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -19572,7 +19568,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -19586,7 +19582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -19600,7 +19596,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -19614,7 +19610,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -19634,7 +19630,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -19648,7 +19644,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -19668,7 +19664,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>95</v>
       </c>
@@ -19682,7 +19678,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -19696,7 +19692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -19710,7 +19706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -19724,7 +19720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -19738,7 +19734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>32</v>
       </c>
@@ -19752,7 +19748,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -19772,7 +19768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -19786,8 +19782,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -19807,7 +19803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -19821,7 +19817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -19835,7 +19831,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -19849,7 +19845,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19863,7 +19859,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -19877,7 +19873,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -19897,7 +19893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -19911,7 +19907,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -19925,7 +19921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -19939,7 +19935,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -19953,7 +19949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -19973,7 +19969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -19987,7 +19983,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -20001,7 +19997,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -20021,7 +20017,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -20041,7 +20037,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -20055,7 +20051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -20069,7 +20065,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>526</v>
       </c>
@@ -20089,7 +20085,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -20109,7 +20105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -20123,7 +20119,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -20137,7 +20133,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20151,7 +20147,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -20171,7 +20167,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -20185,7 +20181,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -20199,7 +20195,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>31</v>
       </c>
@@ -20213,7 +20209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>32</v>
       </c>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5022" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9831779-516C-49B3-A3B3-AF27B8D28219}"/>
+  <xr:revisionPtr revIDLastSave="5023" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D58F4923-6E16-400E-ACD2-5D88666BAF22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5221,7 +5221,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8C31A373-524C-46DB-B8B5-5ED09ADA9231}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5232,7 +5232,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C423CD26-C759-46C2-921F-097420D01674}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5303,6 +5303,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5607,22 +5611,22 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5737,21 +5741,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5847,7 +5851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6103,7 +6107,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6425,8 +6429,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6488,7 +6492,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6879,21 +6883,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6947,7 +6951,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6961,7 +6965,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7009,7 +7013,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7049,7 +7053,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7111,7 +7115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7241,7 +7245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7607,7 +7611,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7703,7 +7707,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7922,21 +7926,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7956,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -7990,7 +7994,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8010,7 +8014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8030,7 +8034,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8188,7 +8192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8222,7 +8226,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8312,7 +8316,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8354,7 +8358,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8506,7 +8510,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8726,7 +8730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8870,7 +8874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8968,21 +8972,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9040,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9082,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9098,7 +9102,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9126,7 +9130,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9154,7 +9158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9230,7 +9234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9264,7 +9268,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +9282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9371,7 +9375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9540,7 +9544,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9574,7 +9578,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9616,7 +9620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9678,7 +9682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9844,7 +9848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9931,21 +9935,21 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -9985,7 +9989,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10005,7 +10009,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10019,7 +10023,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10033,7 +10037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10047,7 +10051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10095,7 +10099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10109,7 +10113,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10123,7 +10127,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10137,7 +10141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10205,7 +10209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10253,7 +10257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10267,7 +10271,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10337,7 +10341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10399,7 +10403,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10413,7 +10417,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10447,7 +10451,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10467,7 +10471,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10495,7 +10499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10661,7 +10665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10695,7 +10699,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10709,7 +10713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10723,7 +10727,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10743,7 +10747,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10757,7 +10761,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10777,7 +10781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10825,7 +10829,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10920,21 +10924,21 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -10988,7 +10992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11008,7 +11012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11036,7 +11040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11064,7 +11068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11078,7 +11082,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11098,7 +11102,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11112,7 +11116,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11216,7 +11220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11250,7 +11254,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11312,7 +11316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11326,7 +11330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11367,21 +11371,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11401,7 +11405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11421,7 +11425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11545,7 +11549,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11559,7 +11563,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11607,7 +11611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11627,7 +11631,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11641,7 +11645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11695,7 +11699,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11715,7 +11719,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11777,7 +11781,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11791,7 +11795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11859,7 +11863,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11873,7 +11877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11893,7 +11897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11907,7 +11911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11921,7 +11925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11969,7 +11973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12011,21 +12015,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12045,7 +12049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12079,7 +12083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12093,7 +12097,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12121,7 +12125,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12141,7 +12145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12169,7 +12173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12217,7 +12221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12299,7 +12303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12313,7 +12317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12341,7 +12345,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12361,7 +12365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12375,7 +12379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12389,7 +12393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12403,7 +12407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12437,7 +12441,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12457,7 +12461,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12491,7 +12495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12553,7 +12557,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12615,7 +12619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12657,7 +12661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12671,7 +12675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12705,7 +12709,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12719,7 +12723,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12753,7 +12757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12767,7 +12771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12781,7 +12785,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12809,7 +12813,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12829,7 +12833,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12843,7 +12847,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12879,21 +12883,21 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12935,7 +12939,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12957,7 +12961,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12979,7 +12983,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13021,7 +13025,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13042,7 +13046,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13084,7 +13088,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13105,7 +13109,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13126,7 +13130,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13147,7 +13151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13168,7 +13172,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13189,7 +13193,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13231,7 +13235,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13273,7 +13277,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -13298,7 +13302,7 @@
         <v>0.58434782608695657</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>722</v>
       </c>
@@ -13345,21 +13349,21 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13399,7 +13403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13413,7 +13417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -13427,7 +13431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -13441,7 +13445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -13455,7 +13459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13475,7 +13479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -13531,7 +13535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13545,21 +13549,21 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13579,7 +13583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13613,7 +13617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13633,7 +13637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13647,7 +13651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13675,7 +13679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13689,7 +13693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13709,7 +13713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13729,7 +13733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13785,7 +13789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -13819,7 +13823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -13833,7 +13837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13853,7 +13857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13867,7 +13871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -13881,7 +13885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -13895,7 +13899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -13909,7 +13913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -13929,7 +13933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -13943,7 +13947,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -13957,7 +13961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -13999,7 +14003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14019,7 +14023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14039,7 +14043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14073,8 +14077,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -14150,21 +14154,21 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14184,7 +14188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -14204,7 +14208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -14218,7 +14222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -14232,7 +14236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>61</v>
       </c>
@@ -14280,7 +14284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -14300,7 +14304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -14314,7 +14318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -14334,7 +14338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -14362,7 +14366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -14382,7 +14386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -14396,7 +14400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -14410,7 +14414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -14430,7 +14434,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14444,7 +14448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -14486,7 +14490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -14506,7 +14510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -14534,7 +14538,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14554,7 +14558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -14568,7 +14572,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -14588,7 +14592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -14602,7 +14606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -14622,7 +14626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -14642,7 +14646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -14656,7 +14660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14670,7 +14674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -14690,7 +14694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -14704,7 +14708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -14718,7 +14722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -14732,7 +14736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -14746,7 +14750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -14766,7 +14770,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -14786,7 +14790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -14806,7 +14810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -14820,7 +14824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -14834,8 +14838,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -14855,7 +14859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>25</v>
       </c>
@@ -14917,7 +14921,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -14931,7 +14935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -14951,7 +14955,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14965,7 +14969,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -15013,7 +15017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -15041,21 +15045,21 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -15163,7 +15167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -15191,7 +15195,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -15239,7 +15243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -15253,7 +15257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -15267,7 +15271,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -15301,7 +15305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -15329,7 +15333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -15343,7 +15347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -15363,7 +15367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -15377,7 +15381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -15391,7 +15395,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15419,7 +15423,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -15433,7 +15437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -15447,7 +15451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -15467,7 +15471,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -15487,7 +15491,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>145</v>
       </c>
@@ -15529,7 +15533,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -15563,7 +15567,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -15617,7 +15621,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -15665,7 +15669,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -15685,7 +15689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -15699,7 +15703,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>725</v>
       </c>
@@ -15719,7 +15723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>61</v>
       </c>
@@ -15733,7 +15737,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -15753,7 +15757,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -15767,7 +15771,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15781,7 +15785,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>61</v>
       </c>
@@ -15815,7 +15819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -15835,7 +15839,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -15855,7 +15859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -15875,7 +15879,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -15903,7 +15907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -15917,7 +15921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -15937,7 +15941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>61</v>
       </c>
@@ -15951,7 +15955,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -15971,7 +15975,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15985,7 +15989,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>25</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>31</v>
       </c>
@@ -16013,7 +16017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>32</v>
       </c>
@@ -16027,7 +16031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -16047,7 +16051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -16067,7 +16071,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -16095,21 +16099,21 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16129,7 +16133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -16149,7 +16153,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -16163,7 +16167,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16177,7 +16181,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -16197,7 +16201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -16211,7 +16215,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -16225,7 +16229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -16259,7 +16263,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -16273,7 +16277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -16293,7 +16297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -16313,7 +16317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -16333,7 +16337,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -16353,7 +16357,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -16367,7 +16371,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -16387,7 +16391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>95</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16435,7 +16439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16450,7 +16454,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -16465,7 +16469,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -16480,7 +16484,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -16534,7 +16538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -16548,7 +16552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -16568,7 +16572,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -16608,7 +16612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -16622,7 +16626,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -16642,7 +16646,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -16656,7 +16660,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -16676,7 +16680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -16696,7 +16700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -16710,7 +16714,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -16778,7 +16782,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -16792,7 +16796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -16812,7 +16816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>720</v>
       </c>
@@ -16852,7 +16856,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -16866,7 +16870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -16934,7 +16938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -16968,7 +16972,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16982,7 +16986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -17002,7 +17006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -17016,7 +17020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -17030,7 +17034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>31</v>
       </c>
@@ -17058,21 +17062,21 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17092,7 +17096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -17112,7 +17116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17132,7 +17136,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -17160,7 +17164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -17200,7 +17204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -17234,7 +17238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -17248,7 +17252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -17268,7 +17272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -17282,7 +17286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -17296,7 +17300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -17310,7 +17314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17324,10 +17328,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17347,7 +17351,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -17361,7 +17365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -17375,8 +17379,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>95</v>
       </c>
@@ -17410,7 +17414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -17444,7 +17448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17458,7 +17462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17472,7 +17476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -17492,7 +17496,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -17506,7 +17510,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -17521,7 +17525,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -17535,7 +17539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -17555,7 +17559,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -17575,7 +17579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -17595,7 +17599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -17609,7 +17613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -17623,7 +17627,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -17637,7 +17641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -17651,7 +17655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -17671,7 +17675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -17691,7 +17695,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17711,7 +17715,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -17731,7 +17735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -17751,7 +17755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -17765,7 +17769,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -17785,7 +17789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -17805,7 +17809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>95</v>
       </c>
@@ -17819,7 +17823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>291</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -17853,7 +17857,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -17873,7 +17877,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -17893,7 +17897,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -17907,7 +17911,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -17927,7 +17931,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17955,21 +17959,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17989,7 +17993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -18009,7 +18013,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -18023,7 +18027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18043,7 +18047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -18057,7 +18061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18077,7 +18081,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -18097,7 +18101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -18117,7 +18121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -18151,7 +18155,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -18171,7 +18175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -18185,7 +18189,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -18205,7 +18209,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -18219,7 +18223,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -18233,7 +18237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -18253,7 +18257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -18267,7 +18271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -18287,7 +18291,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -18307,7 +18311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -18349,7 +18353,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -18363,7 +18367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -18377,7 +18381,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -18391,7 +18395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -18411,7 +18415,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>450</v>
       </c>
@@ -18431,7 +18435,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -18445,7 +18449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -18459,7 +18463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -18473,7 +18477,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -18487,7 +18491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -18507,7 +18511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18535,7 +18539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -18549,7 +18553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -18563,7 +18567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -18583,7 +18587,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -18597,7 +18601,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -18617,7 +18621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -18631,7 +18635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -18645,7 +18649,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -18659,7 +18663,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>32</v>
       </c>
@@ -18673,7 +18677,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -18693,7 +18697,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -18707,7 +18711,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -18727,7 +18731,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>16</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -18755,7 +18759,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -18769,7 +18773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -18789,7 +18793,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -18803,7 +18807,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18817,7 +18821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -18831,7 +18835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>32</v>
       </c>
@@ -18845,7 +18849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -18865,7 +18869,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>95</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -18893,7 +18897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -18907,7 +18911,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -18927,7 +18931,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -18941,7 +18945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -18955,7 +18959,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>423</v>
       </c>
@@ -18975,7 +18979,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -18995,7 +18999,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>25</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>31</v>
       </c>
@@ -19023,7 +19027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>32</v>
       </c>
@@ -19037,7 +19041,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -19057,7 +19061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>486</v>
       </c>
@@ -19071,7 +19075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>486</v>
       </c>
@@ -19085,7 +19089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>31</v>
       </c>
@@ -19099,7 +19103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>32</v>
       </c>
@@ -19178,21 +19182,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19212,7 +19216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -19232,7 +19236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -19252,7 +19256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -19266,7 +19270,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -19280,7 +19284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -19294,7 +19298,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -19308,7 +19312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -19328,7 +19332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -19348,7 +19352,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -19362,7 +19366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -19376,7 +19380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -19390,7 +19394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19404,7 +19408,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>394</v>
       </c>
@@ -19424,7 +19428,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -19444,7 +19448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -19458,7 +19462,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -19472,7 +19476,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -19486,7 +19490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -19500,7 +19504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>502</v>
       </c>
@@ -19520,7 +19524,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -19540,7 +19544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -19554,7 +19558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -19568,7 +19572,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -19582,7 +19586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -19596,7 +19600,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -19610,7 +19614,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -19630,7 +19634,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -19644,7 +19648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -19664,7 +19668,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>95</v>
       </c>
@@ -19678,7 +19682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -19692,7 +19696,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -19706,7 +19710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -19720,7 +19724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -19734,7 +19738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>32</v>
       </c>
@@ -19748,7 +19752,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -19768,7 +19772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -19782,8 +19786,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -19803,7 +19807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -19817,7 +19821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -19831,7 +19835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -19845,7 +19849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19859,7 +19863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -19873,7 +19877,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -19893,7 +19897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -19907,7 +19911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -19921,7 +19925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -19935,7 +19939,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -19949,7 +19953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -19983,7 +19987,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -19997,7 +20001,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -20017,7 +20021,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -20037,7 +20041,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -20051,7 +20055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>526</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -20105,7 +20109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -20119,7 +20123,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -20133,7 +20137,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20147,7 +20151,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -20167,7 +20171,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -20181,7 +20185,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -20195,7 +20199,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>31</v>
       </c>
@@ -20209,7 +20213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>32</v>
       </c>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5023" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D58F4923-6E16-400E-ACD2-5D88666BAF22}"/>
+  <xr:revisionPtr revIDLastSave="5024" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D902A3-56F2-47EE-9936-8900683D6AF2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5612,21 +5612,21 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5742,20 +5742,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6429,8 +6429,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6884,20 +6884,20 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7927,20 +7927,20 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8973,20 +8973,20 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9936,20 +9936,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10925,20 +10925,20 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11372,20 +11372,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12016,20 +12016,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12884,20 +12884,20 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12961,7 +12961,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>0.58434782608695657</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>722</v>
       </c>
@@ -13350,20 +13350,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13550,20 +13550,20 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14077,8 +14077,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -14155,20 +14155,20 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>61</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -14838,8 +14838,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>25</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -15046,20 +15046,20 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>145</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>725</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>61</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>61</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>61</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>25</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>31</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>32</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -16100,20 +16100,20 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>95</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>720</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>31</v>
       </c>
@@ -17063,20 +17063,20 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17328,10 +17328,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -17379,8 +17379,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>95</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -17809,7 +17809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>95</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>291</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17960,20 +17960,20 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>450</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>32</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>16</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>32</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>95</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>423</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>25</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>31</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>32</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>486</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>486</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>31</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>32</v>
       </c>
@@ -19183,20 +19183,20 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>394</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -19504,7 +19504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>502</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>95</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>32</v>
       </c>
@@ -19752,7 +19752,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -19786,8 +19786,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>526</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -20137,7 +20137,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>31</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>32</v>
       </c>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5024" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D902A3-56F2-47EE-9936-8900683D6AF2}"/>
+  <xr:revisionPtr revIDLastSave="5026" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21FF11D5-DA7A-4271-AD65-C8C4CE8C8934}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -5305,10 +5305,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5612,7 +5608,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5742,7 +5738,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6884,7 +6880,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7927,7 +7923,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8973,7 +8969,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9936,7 +9932,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10925,7 +10921,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11372,7 +11368,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12016,7 +12012,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12884,7 +12880,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13350,7 +13346,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13550,7 +13546,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14155,7 +14151,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15046,7 +15042,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16100,7 +16096,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17063,7 +17059,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17960,7 +17956,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19183,7 +19179,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5026" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21FF11D5-DA7A-4271-AD65-C8C4CE8C8934}"/>
+  <xr:revisionPtr revIDLastSave="5027" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF13C6F-AAAB-4754-9396-E1C4CAF3A3E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5305,6 +5305,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5611,18 +5615,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5741,17 +5745,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5847,7 +5851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6103,7 +6107,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6425,8 +6429,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6488,7 +6492,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6883,17 +6887,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6947,7 +6951,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6961,7 +6965,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7009,7 +7013,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7049,7 +7053,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7111,7 +7115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7241,7 +7245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7607,7 +7611,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7703,7 +7707,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7926,17 +7930,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7956,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -7990,7 +7994,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8010,7 +8014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8030,7 +8034,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8188,7 +8192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8222,7 +8226,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8312,7 +8316,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8354,7 +8358,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8506,7 +8510,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8726,7 +8730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8870,7 +8874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8972,17 +8976,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9040,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9082,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9098,7 +9102,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9126,7 +9130,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9154,7 +9158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9230,7 +9234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9264,7 +9268,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +9282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9371,7 +9375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9540,7 +9544,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9574,7 +9578,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9616,7 +9620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9678,7 +9682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9844,7 +9848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9935,17 +9939,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -9985,7 +9989,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10005,7 +10009,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10019,7 +10023,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10033,7 +10037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10047,7 +10051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10095,7 +10099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10109,7 +10113,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10123,7 +10127,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10137,7 +10141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10205,7 +10209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10253,7 +10257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10267,7 +10271,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10337,7 +10341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10399,7 +10403,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10413,7 +10417,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10447,7 +10451,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10467,7 +10471,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10495,7 +10499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10661,7 +10665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10695,7 +10699,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10709,7 +10713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10723,7 +10727,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10743,7 +10747,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10757,7 +10761,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10777,7 +10781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10825,7 +10829,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10924,17 +10928,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -10988,7 +10992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11008,7 +11012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11036,7 +11040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11064,7 +11068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11078,7 +11082,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11098,7 +11102,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11112,7 +11116,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11216,7 +11220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11250,7 +11254,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11312,7 +11316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11326,7 +11330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11371,17 +11375,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11401,7 +11405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11421,7 +11425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11545,7 +11549,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11559,7 +11563,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11607,7 +11611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11627,7 +11631,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11641,7 +11645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11695,7 +11699,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11715,7 +11719,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11777,7 +11781,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11791,7 +11795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11859,7 +11863,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11873,7 +11877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11893,7 +11897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11907,7 +11911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11921,7 +11925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11969,7 +11973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12015,17 +12019,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12045,7 +12049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12079,7 +12083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12093,7 +12097,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12121,7 +12125,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12141,7 +12145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12169,7 +12173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12217,7 +12221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12299,7 +12303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12313,7 +12317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12341,7 +12345,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12361,7 +12365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12375,7 +12379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12389,7 +12393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12403,7 +12407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12437,7 +12441,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12457,7 +12461,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12491,7 +12495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12553,7 +12557,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12615,7 +12619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12657,7 +12661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12671,7 +12675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12705,7 +12709,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12719,7 +12723,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12753,7 +12757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12767,7 +12771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12781,7 +12785,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12809,7 +12813,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12829,7 +12833,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12843,7 +12847,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12883,17 +12887,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12935,7 +12939,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12957,7 +12961,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12979,7 +12983,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13021,7 +13025,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13042,7 +13046,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13084,7 +13088,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13105,7 +13109,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13126,7 +13130,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13147,7 +13151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13168,7 +13172,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13189,7 +13193,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13231,7 +13235,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13273,7 +13277,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -13298,7 +13302,7 @@
         <v>0.58434782608695657</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>722</v>
       </c>
@@ -13349,17 +13353,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13399,7 +13403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13413,7 +13417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -13427,7 +13431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -13441,7 +13445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -13455,7 +13459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13475,7 +13479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -13531,7 +13535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13549,17 +13553,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13579,7 +13583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13613,7 +13617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13633,7 +13637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13647,7 +13651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13675,7 +13679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13689,7 +13693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13709,7 +13713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13729,7 +13733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13785,7 +13789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -13819,7 +13823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -13833,7 +13837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13853,7 +13857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13867,7 +13871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -13881,7 +13885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -13895,7 +13899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -13909,7 +13913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -13929,7 +13933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -13943,7 +13947,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -13957,7 +13961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -13999,7 +14003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14019,7 +14023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14039,7 +14043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14073,8 +14077,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -14154,17 +14158,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14184,7 +14188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -14204,7 +14208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -14218,7 +14222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -14232,7 +14236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>61</v>
       </c>
@@ -14280,7 +14284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -14300,7 +14304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -14314,7 +14318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -14334,7 +14338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -14362,7 +14366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -14382,7 +14386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -14396,7 +14400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -14410,7 +14414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -14430,7 +14434,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14444,7 +14448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -14486,7 +14490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -14506,7 +14510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -14534,7 +14538,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14554,7 +14558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -14568,7 +14572,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -14588,7 +14592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -14602,7 +14606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -14622,7 +14626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -14642,7 +14646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -14656,7 +14660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14670,7 +14674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -14690,7 +14694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -14704,7 +14708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -14718,7 +14722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -14732,7 +14736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -14746,7 +14750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -14766,7 +14770,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -14786,7 +14790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -14806,7 +14810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -14820,7 +14824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -14834,8 +14838,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -14855,7 +14859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>25</v>
       </c>
@@ -14917,7 +14921,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -14931,7 +14935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -14951,7 +14955,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14965,7 +14969,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -15013,7 +15017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -15045,17 +15049,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -15163,7 +15167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -15191,7 +15195,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -15239,7 +15243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -15253,7 +15257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -15267,7 +15271,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -15301,7 +15305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -15329,7 +15333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -15343,7 +15347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -15363,7 +15367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -15377,7 +15381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -15391,7 +15395,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15419,7 +15423,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -15433,7 +15437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -15447,7 +15451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -15467,7 +15471,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -15487,7 +15491,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>145</v>
       </c>
@@ -15529,7 +15533,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -15563,7 +15567,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -15617,7 +15621,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -15665,7 +15669,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -15685,7 +15689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -15699,7 +15703,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>725</v>
       </c>
@@ -15719,7 +15723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>61</v>
       </c>
@@ -15733,7 +15737,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -15753,7 +15757,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -15767,7 +15771,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15781,7 +15785,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>61</v>
       </c>
@@ -15815,7 +15819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -15835,7 +15839,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -15855,7 +15859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -15875,7 +15879,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -15903,7 +15907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -15917,7 +15921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -15937,7 +15941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>61</v>
       </c>
@@ -15951,7 +15955,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -15971,7 +15975,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15985,7 +15989,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>25</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>31</v>
       </c>
@@ -16013,7 +16017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>32</v>
       </c>
@@ -16027,7 +16031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -16047,7 +16051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -16067,7 +16071,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -16099,17 +16103,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16129,7 +16133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -16149,7 +16153,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -16163,7 +16167,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16177,7 +16181,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -16197,7 +16201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -16211,7 +16215,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -16225,7 +16229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -16259,7 +16263,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -16273,7 +16277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -16293,7 +16297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -16313,7 +16317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -16333,7 +16337,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -16353,7 +16357,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -16367,7 +16371,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -16387,7 +16391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>95</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16435,7 +16439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16450,7 +16454,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -16465,7 +16469,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -16480,7 +16484,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -16534,7 +16538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -16548,7 +16552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -16568,7 +16572,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -16608,7 +16612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -16622,7 +16626,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -16642,7 +16646,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -16656,7 +16660,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -16676,7 +16680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -16696,7 +16700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -16710,7 +16714,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -16778,7 +16782,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -16792,7 +16796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -16812,7 +16816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>720</v>
       </c>
@@ -16852,7 +16856,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -16866,7 +16870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -16934,7 +16938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -16968,7 +16972,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16982,7 +16986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -17002,7 +17006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -17016,7 +17020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -17030,7 +17034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>31</v>
       </c>
@@ -17062,17 +17066,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17092,7 +17096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -17112,7 +17116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17132,7 +17136,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -17160,7 +17164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -17200,7 +17204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -17234,7 +17238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -17248,7 +17252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -17268,7 +17272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -17282,7 +17286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -17296,7 +17300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -17310,7 +17314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17324,10 +17328,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17347,7 +17351,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -17361,7 +17365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -17375,8 +17379,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>95</v>
       </c>
@@ -17410,7 +17414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -17444,7 +17448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17458,7 +17462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17472,7 +17476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -17492,7 +17496,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -17506,7 +17510,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -17521,7 +17525,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -17535,7 +17539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -17555,7 +17559,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -17575,7 +17579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -17595,7 +17599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -17609,7 +17613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -17623,7 +17627,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -17637,7 +17641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -17651,7 +17655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -17671,7 +17675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -17691,7 +17695,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17711,7 +17715,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -17731,7 +17735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -17751,7 +17755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -17765,7 +17769,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -17785,7 +17789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -17805,7 +17809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>95</v>
       </c>
@@ -17819,7 +17823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>291</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -17853,7 +17857,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -17873,7 +17877,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -17893,7 +17897,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -17907,7 +17911,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -17927,7 +17931,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17959,17 +17963,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17989,7 +17993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -18009,7 +18013,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -18023,7 +18027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18043,7 +18047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -18057,7 +18061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18077,7 +18081,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -18097,7 +18101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -18117,7 +18121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -18151,7 +18155,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -18171,7 +18175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -18185,7 +18189,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -18205,7 +18209,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -18219,7 +18223,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -18233,7 +18237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -18253,7 +18257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -18267,7 +18271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -18287,7 +18291,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -18307,7 +18311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -18349,7 +18353,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -18363,7 +18367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -18377,7 +18381,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -18391,7 +18395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -18411,7 +18415,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>450</v>
       </c>
@@ -18431,7 +18435,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -18445,7 +18449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -18459,7 +18463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -18473,7 +18477,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -18487,7 +18491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -18507,7 +18511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18535,7 +18539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -18549,7 +18553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -18563,7 +18567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -18583,7 +18587,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -18597,7 +18601,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -18617,7 +18621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -18631,7 +18635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -18645,7 +18649,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -18659,7 +18663,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>32</v>
       </c>
@@ -18673,7 +18677,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -18693,7 +18697,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -18707,7 +18711,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -18727,7 +18731,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>16</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -18755,7 +18759,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -18769,7 +18773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -18789,7 +18793,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -18803,7 +18807,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18817,7 +18821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -18831,7 +18835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>32</v>
       </c>
@@ -18845,7 +18849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -18865,7 +18869,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>95</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -18893,7 +18897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -18907,7 +18911,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -18927,7 +18931,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -18941,7 +18945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -18955,7 +18959,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>423</v>
       </c>
@@ -18975,7 +18979,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -18995,7 +18999,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>25</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>31</v>
       </c>
@@ -19023,7 +19027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>32</v>
       </c>
@@ -19037,7 +19041,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -19057,7 +19061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>486</v>
       </c>
@@ -19071,7 +19075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>486</v>
       </c>
@@ -19085,7 +19089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>31</v>
       </c>
@@ -19099,7 +19103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>32</v>
       </c>
@@ -19182,17 +19186,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19212,7 +19216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -19232,7 +19236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -19252,7 +19256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -19266,7 +19270,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -19280,7 +19284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -19294,7 +19298,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -19308,7 +19312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -19328,7 +19332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -19348,7 +19352,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -19362,7 +19366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -19376,7 +19380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -19390,7 +19394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19404,7 +19408,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>394</v>
       </c>
@@ -19424,7 +19428,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -19444,7 +19448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -19458,7 +19462,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -19472,7 +19476,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -19486,7 +19490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -19500,7 +19504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>502</v>
       </c>
@@ -19520,7 +19524,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -19540,7 +19544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -19554,7 +19558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -19568,7 +19572,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -19582,7 +19586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -19596,7 +19600,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -19610,7 +19614,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -19630,7 +19634,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -19644,7 +19648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -19664,7 +19668,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>95</v>
       </c>
@@ -19678,7 +19682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -19692,7 +19696,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -19706,7 +19710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -19720,7 +19724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -19734,7 +19738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>32</v>
       </c>
@@ -19748,7 +19752,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -19768,7 +19772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -19782,8 +19786,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -19803,7 +19807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -19817,7 +19821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -19831,7 +19835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -19845,7 +19849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19859,7 +19863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -19873,7 +19877,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -19893,7 +19897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -19907,7 +19911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -19921,7 +19925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -19935,7 +19939,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -19949,7 +19953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -19983,7 +19987,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -19997,7 +20001,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -20017,7 +20021,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -20037,7 +20041,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -20051,7 +20055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>526</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -20105,7 +20109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -20119,7 +20123,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -20133,7 +20137,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20147,7 +20151,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -20167,7 +20171,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -20181,7 +20185,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -20195,7 +20199,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>31</v>
       </c>
@@ -20209,7 +20213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>32</v>
       </c>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5027" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF13C6F-AAAB-4754-9396-E1C4CAF3A3E3}"/>
+  <xr:revisionPtr revIDLastSave="5028" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E25B0A4-4341-4BB0-84C6-27DBF95463CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5305,10 +5305,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5615,18 +5611,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5646,7 +5642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5666,7 +5662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5700,7 +5696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5745,17 +5741,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5795,7 +5791,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5823,7 +5819,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5885,7 +5881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5899,7 +5895,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5913,7 +5909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5955,7 +5951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +5985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6017,7 +6013,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6031,7 +6027,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +6061,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6079,7 +6075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6093,7 +6089,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6121,7 +6117,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6141,7 +6137,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6155,7 +6151,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6169,7 +6165,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6183,7 +6179,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6231,7 +6227,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6245,7 +6241,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6265,7 +6261,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6299,7 +6295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6327,7 +6323,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6347,7 +6343,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6361,7 +6357,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6395,7 +6391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6409,7 +6405,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6429,8 +6425,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6464,7 +6460,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6478,7 +6474,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6526,7 +6522,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6540,7 +6536,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6616,7 +6612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6630,7 +6626,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6644,7 +6640,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6658,7 +6654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6740,7 +6736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6774,7 +6770,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6794,7 +6790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6808,7 +6804,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6887,17 +6883,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6917,7 +6913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6937,7 +6933,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6951,7 +6947,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6965,7 +6961,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -6985,7 +6981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -7002,7 +6998,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7013,7 +7009,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7033,7 +7029,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7053,7 +7049,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7073,7 +7069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7087,7 +7083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7101,7 +7097,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7115,7 +7111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7135,7 +7131,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7149,7 +7145,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7163,7 +7159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7177,7 +7173,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7194,7 +7190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7205,7 +7201,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7225,7 +7221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7245,7 +7241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7259,7 +7255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7287,7 +7283,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7315,7 +7311,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7335,7 +7331,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7355,7 +7351,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7369,7 +7365,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7397,7 +7393,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7417,7 +7413,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7431,7 +7427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7445,7 +7441,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7459,7 +7455,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7473,7 +7469,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7493,7 +7489,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7521,7 +7517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7535,7 +7531,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7549,7 +7545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7569,7 +7565,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7611,7 +7607,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7625,7 +7621,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7645,7 +7641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7659,7 +7655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7673,7 +7669,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7687,7 +7683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7707,7 +7703,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7749,7 +7745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7783,7 +7779,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7811,7 +7807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7845,7 +7841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7859,7 +7855,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7879,7 +7875,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7893,7 +7889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7930,17 +7926,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7960,7 +7956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7980,7 +7976,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -7994,7 +7990,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8014,7 +8010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8034,7 +8030,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8048,7 +8044,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8068,7 +8064,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8082,7 +8078,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8116,7 +8112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8144,7 +8140,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8178,7 +8174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8188,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8212,7 +8208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8226,7 +8222,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8240,7 +8236,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8254,7 +8250,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8268,7 +8264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8282,7 +8278,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8302,7 +8298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8316,7 +8312,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8330,7 +8326,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8344,7 +8340,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8358,7 +8354,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8378,7 +8374,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8392,7 +8388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8406,7 +8402,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8420,7 +8416,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8434,7 +8430,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8448,7 +8444,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8482,7 +8478,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8496,7 +8492,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8510,7 +8506,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8530,7 +8526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8544,7 +8540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8558,7 +8554,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8568,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8586,7 +8582,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8606,7 +8602,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8620,7 +8616,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8668,7 +8664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8696,7 +8692,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8716,7 +8712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +8726,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8772,7 +8768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8832,7 +8828,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8846,7 +8842,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8860,7 +8856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8874,7 +8870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8888,7 +8884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8922,7 +8918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8936,7 +8932,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8976,17 +8972,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9006,7 +9002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9026,7 +9022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9040,7 +9036,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9054,7 +9050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9068,7 +9064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9082,7 +9078,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9102,7 +9098,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9116,7 +9112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9130,7 +9126,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9144,7 +9140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9158,7 +9154,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9172,7 +9168,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9186,7 +9182,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9206,7 +9202,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9220,7 +9216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9234,7 +9230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9248,7 +9244,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9268,7 +9264,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9282,7 +9278,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9296,7 +9292,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9310,7 +9306,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9324,7 +9320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9344,7 +9340,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9358,7 +9354,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9375,7 +9371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9406,7 +9402,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9420,7 +9416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9440,7 +9436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9454,7 +9450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9468,7 +9464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9482,7 +9478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9530,7 +9526,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9544,7 +9540,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9558,7 +9554,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9578,7 +9574,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9592,7 +9588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9606,7 +9602,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9620,7 +9616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9634,7 +9630,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9648,7 +9644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9662,7 +9658,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9682,7 +9678,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9696,7 +9692,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9730,7 +9726,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9744,7 +9740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9772,7 +9768,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9786,7 +9782,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9806,7 +9802,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9820,7 +9816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9834,7 +9830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9848,7 +9844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9862,7 +9858,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9882,7 +9878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9902,7 +9898,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9939,17 +9935,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9969,7 +9965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -9989,7 +9985,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10009,7 +10005,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10023,7 +10019,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10037,7 +10033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10051,7 +10047,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10068,7 +10064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10079,7 +10075,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10099,7 +10095,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10113,7 +10109,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10127,7 +10123,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10141,7 +10137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +10171,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10189,7 +10185,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10209,7 +10205,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10223,7 +10219,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10237,7 +10233,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10257,7 +10253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +10267,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10285,7 +10281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10299,7 +10295,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10313,7 +10309,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10341,7 +10337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10361,7 +10357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10375,7 +10371,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10389,7 +10385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10403,7 +10399,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10417,7 +10413,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10431,7 +10427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10451,7 +10447,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10471,7 +10467,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10485,7 +10481,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10499,7 +10495,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10513,7 +10509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10527,7 +10523,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10547,7 +10543,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10561,7 +10557,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10575,7 +10571,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10595,7 +10591,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10609,7 +10605,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10623,7 +10619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10637,7 +10633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10651,7 +10647,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10665,7 +10661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10679,7 +10675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10699,7 +10695,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10713,7 +10709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10747,7 +10743,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10761,7 +10757,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10781,7 +10777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10795,7 +10791,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10815,7 +10811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10849,7 +10845,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10863,7 +10859,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10883,7 +10879,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10928,17 +10924,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10958,7 +10954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10978,7 +10974,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -10992,7 +10988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11012,7 +11008,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11040,7 +11036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11054,7 +11050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11068,7 +11064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11082,7 +11078,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11102,7 +11098,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11116,7 +11112,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11130,7 +11126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11144,7 +11140,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11164,7 +11160,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11178,7 +11174,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11192,7 +11188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11206,7 +11202,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11220,7 +11216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11240,7 +11236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11254,7 +11250,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11268,7 +11264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11296,7 +11292,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11316,7 +11312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11330,7 +11326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11344,7 +11340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11375,17 +11371,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11405,7 +11401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11425,7 +11421,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11439,7 +11435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11473,7 +11469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11487,7 +11483,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11501,7 +11497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11515,7 +11511,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11529,7 +11525,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11563,7 +11559,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11583,7 +11579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11597,7 +11593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11611,7 +11607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11631,7 +11627,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11645,7 +11641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11659,7 +11655,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11679,7 +11675,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11699,7 +11695,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11719,7 +11715,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11733,7 +11729,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11753,7 +11749,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11781,7 +11777,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11795,7 +11791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11815,7 +11811,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11829,7 +11825,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11849,7 +11845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11863,7 +11859,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11877,7 +11873,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11897,7 +11893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11911,7 +11907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11925,7 +11921,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11939,7 +11935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11953,7 +11949,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11973,7 +11969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -11987,7 +11983,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12019,17 +12015,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12049,7 +12045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12069,7 +12065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12083,7 +12079,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12097,7 +12093,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12111,7 +12107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12125,7 +12121,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12145,7 +12141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12159,7 +12155,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12173,7 +12169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12187,7 +12183,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12207,7 +12203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12221,7 +12217,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12235,7 +12231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12249,7 +12245,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12269,7 +12265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12289,7 +12285,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12303,7 +12299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12317,7 +12313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12331,7 +12327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12345,7 +12341,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12365,7 +12361,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12379,7 +12375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12393,7 +12389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12407,7 +12403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12427,7 +12423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12441,7 +12437,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12461,7 +12457,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12475,7 +12471,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12509,7 +12505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12523,7 +12519,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12537,7 +12533,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12557,7 +12553,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12571,7 +12567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12585,7 +12581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12599,7 +12595,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12619,7 +12615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12647,7 +12643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12661,7 +12657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12675,7 +12671,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12689,7 +12685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12709,7 +12705,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12723,7 +12719,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12743,7 +12739,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12757,7 +12753,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12771,7 +12767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12785,7 +12781,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12799,7 +12795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12813,7 +12809,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12833,7 +12829,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12847,7 +12843,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12887,17 +12883,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12917,7 +12913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12939,7 +12935,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12961,7 +12957,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12983,7 +12979,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13004,7 +13000,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13025,7 +13021,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13046,7 +13042,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13067,7 +13063,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13088,7 +13084,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13109,7 +13105,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13130,7 +13126,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13151,7 +13147,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13172,7 +13168,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13193,7 +13189,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13214,7 +13210,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13235,7 +13231,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13256,7 +13252,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13277,7 +13273,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -13302,7 +13298,7 @@
         <v>0.58434782608695657</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>722</v>
       </c>
@@ -13353,17 +13349,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13383,7 +13379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13403,7 +13399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13417,7 +13413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -13431,7 +13427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -13445,7 +13441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -13459,7 +13455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13479,7 +13475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -13493,7 +13489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -13507,7 +13503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -13521,7 +13517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -13535,7 +13531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13553,17 +13549,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13583,7 +13579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13603,7 +13599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13617,7 +13613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13637,7 +13633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13651,7 +13647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13665,7 +13661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13679,7 +13675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13693,7 +13689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13713,7 +13709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13733,7 +13729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13747,7 +13743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13761,7 +13757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13775,7 +13771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13789,7 +13785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -13809,7 +13805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -13823,7 +13819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -13837,7 +13833,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13857,7 +13853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13871,7 +13867,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -13885,7 +13881,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -13899,7 +13895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -13913,7 +13909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -13933,7 +13929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -13947,7 +13943,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -13961,7 +13957,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -13975,7 +13971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -13989,7 +13985,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -14003,7 +13999,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14023,7 +14019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14043,7 +14039,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14057,7 +14053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14077,8 +14073,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14098,7 +14094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14112,7 +14108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14126,7 +14122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -14158,17 +14154,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14188,7 +14184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -14208,7 +14204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -14222,7 +14218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -14236,7 +14232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -14250,7 +14246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14270,7 +14266,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>61</v>
       </c>
@@ -14284,7 +14280,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -14304,7 +14300,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -14318,7 +14314,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -14338,7 +14334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -14352,7 +14348,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -14366,7 +14362,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -14386,7 +14382,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -14400,7 +14396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -14414,7 +14410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -14434,7 +14430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14448,7 +14444,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14462,7 +14458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -14476,7 +14472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -14490,7 +14486,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -14510,7 +14506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -14524,7 +14520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14534,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14558,7 +14554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -14572,7 +14568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -14592,7 +14588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -14606,7 +14602,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -14626,7 +14622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -14646,7 +14642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -14660,7 +14656,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14674,7 +14670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -14694,7 +14690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -14708,7 +14704,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -14722,7 +14718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -14736,7 +14732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -14750,7 +14746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -14770,7 +14766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -14790,7 +14786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -14810,7 +14806,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -14824,7 +14820,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -14838,8 +14834,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -14859,7 +14855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -14873,7 +14869,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14893,7 +14889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14907,7 +14903,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>25</v>
       </c>
@@ -14921,7 +14917,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -14935,7 +14931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -14955,7 +14951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14969,7 +14965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -14983,7 +14979,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -14997,7 +14993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -15017,7 +15013,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -15049,17 +15045,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15079,7 +15075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -15099,7 +15095,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -15119,7 +15115,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -15133,7 +15129,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15153,7 +15149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -15167,7 +15163,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -15181,7 +15177,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -15195,7 +15191,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -15215,7 +15211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -15229,7 +15225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -15243,7 +15239,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -15257,7 +15253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -15271,7 +15267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -15285,7 +15281,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -15305,7 +15301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -15319,7 +15315,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -15333,7 +15329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -15347,7 +15343,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -15367,7 +15363,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -15381,7 +15377,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -15395,7 +15391,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15409,7 +15405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15423,7 +15419,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -15437,7 +15433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -15451,7 +15447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -15471,7 +15467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -15491,7 +15487,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -15505,7 +15501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -15519,7 +15515,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>145</v>
       </c>
@@ -15533,7 +15529,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -15553,7 +15549,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -15567,7 +15563,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -15587,7 +15583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -15607,7 +15603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -15621,7 +15617,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -15649,7 +15645,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -15669,7 +15665,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -15689,7 +15685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -15703,7 +15699,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>725</v>
       </c>
@@ -15723,7 +15719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>61</v>
       </c>
@@ -15737,7 +15733,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -15757,7 +15753,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -15771,7 +15767,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15785,7 +15781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -15805,7 +15801,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>61</v>
       </c>
@@ -15819,7 +15815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -15839,7 +15835,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -15859,7 +15855,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -15879,7 +15875,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -15893,7 +15889,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -15907,7 +15903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -15921,7 +15917,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -15941,7 +15937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>61</v>
       </c>
@@ -15955,7 +15951,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -15975,7 +15971,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15989,7 +15985,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>25</v>
       </c>
@@ -16003,7 +15999,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>31</v>
       </c>
@@ -16017,7 +16013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>32</v>
       </c>
@@ -16031,7 +16027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -16051,7 +16047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -16071,7 +16067,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -16103,17 +16099,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16133,7 +16129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -16153,7 +16149,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -16167,7 +16163,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16181,7 +16177,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -16201,7 +16197,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -16215,7 +16211,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -16229,7 +16225,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -16249,7 +16245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -16263,7 +16259,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -16277,7 +16273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -16297,7 +16293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -16317,7 +16313,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -16337,7 +16333,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -16357,7 +16353,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -16371,7 +16367,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -16391,7 +16387,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>95</v>
       </c>
@@ -16405,7 +16401,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -16425,7 +16421,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16439,7 +16435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16454,7 +16450,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -16469,7 +16465,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -16484,7 +16480,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -16504,7 +16500,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16524,7 +16520,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -16538,7 +16534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -16552,7 +16548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -16572,7 +16568,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -16592,7 +16588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -16612,7 +16608,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -16626,7 +16622,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -16646,7 +16642,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -16660,7 +16656,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -16680,7 +16676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -16700,7 +16696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -16714,7 +16710,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -16734,7 +16730,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -16754,7 +16750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -16768,7 +16764,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -16782,7 +16778,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -16796,7 +16792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -16816,7 +16812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -16836,7 +16832,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>720</v>
       </c>
@@ -16856,7 +16852,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -16870,7 +16866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -16884,7 +16880,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -16898,7 +16894,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -16918,7 +16914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -16938,7 +16934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -16952,7 +16948,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -16972,7 +16968,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16986,7 +16982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -17006,7 +17002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -17020,7 +17016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -17034,7 +17030,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>31</v>
       </c>
@@ -17066,17 +17062,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17096,7 +17092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -17116,7 +17112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17136,7 +17132,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -17150,7 +17146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -17164,7 +17160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -17184,7 +17180,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -17204,7 +17200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -17224,7 +17220,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -17238,7 +17234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -17252,7 +17248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -17272,7 +17268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -17286,7 +17282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -17300,7 +17296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -17314,7 +17310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17328,10 +17324,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17351,7 +17347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -17365,7 +17361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -17379,8 +17375,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -17400,7 +17396,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>95</v>
       </c>
@@ -17414,7 +17410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -17448,7 +17444,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17462,7 +17458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17476,7 +17472,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -17496,7 +17492,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -17510,7 +17506,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -17525,7 +17521,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -17539,7 +17535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -17559,7 +17555,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -17579,7 +17575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -17599,7 +17595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -17613,7 +17609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -17627,7 +17623,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -17641,7 +17637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -17655,7 +17651,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -17675,7 +17671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -17695,7 +17691,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17715,7 +17711,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -17735,7 +17731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -17755,7 +17751,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -17769,7 +17765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -17789,7 +17785,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -17809,7 +17805,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>95</v>
       </c>
@@ -17823,7 +17819,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>291</v>
       </c>
@@ -17843,7 +17839,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -17857,7 +17853,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -17877,7 +17873,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -17897,7 +17893,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -17911,7 +17907,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -17931,7 +17927,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17963,17 +17959,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17993,7 +17989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -18013,7 +18009,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -18027,7 +18023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18047,7 +18043,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -18061,7 +18057,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18081,7 +18077,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -18101,7 +18097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -18121,7 +18117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -18135,7 +18131,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -18155,7 +18151,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -18175,7 +18171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -18189,7 +18185,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -18209,7 +18205,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -18223,7 +18219,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -18237,7 +18233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -18257,7 +18253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -18291,7 +18287,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -18311,7 +18307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -18325,7 +18321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -18339,7 +18335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -18353,7 +18349,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -18367,7 +18363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -18381,7 +18377,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -18395,7 +18391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -18415,7 +18411,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>450</v>
       </c>
@@ -18435,7 +18431,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -18449,7 +18445,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -18463,7 +18459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -18477,7 +18473,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -18491,7 +18487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -18511,7 +18507,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18525,7 +18521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18539,7 +18535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -18553,7 +18549,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -18567,7 +18563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -18587,7 +18583,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -18601,7 +18597,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -18621,7 +18617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -18635,7 +18631,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -18649,7 +18645,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -18663,7 +18659,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>32</v>
       </c>
@@ -18677,7 +18673,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -18697,7 +18693,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -18711,7 +18707,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -18731,7 +18727,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>16</v>
       </c>
@@ -18745,7 +18741,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -18759,7 +18755,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -18773,7 +18769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -18793,7 +18789,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -18807,7 +18803,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18821,7 +18817,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -18835,7 +18831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>32</v>
       </c>
@@ -18849,7 +18845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -18869,7 +18865,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>95</v>
       </c>
@@ -18883,7 +18879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -18897,7 +18893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -18911,7 +18907,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -18931,7 +18927,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -18945,7 +18941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -18959,7 +18955,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>423</v>
       </c>
@@ -18979,7 +18975,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -18999,7 +18995,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>25</v>
       </c>
@@ -19013,7 +19009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>31</v>
       </c>
@@ -19027,7 +19023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>32</v>
       </c>
@@ -19041,7 +19037,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -19061,7 +19057,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>486</v>
       </c>
@@ -19075,7 +19071,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>486</v>
       </c>
@@ -19089,7 +19085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>31</v>
       </c>
@@ -19103,7 +19099,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>32</v>
       </c>
@@ -19186,17 +19182,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19216,7 +19212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -19236,7 +19232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -19256,7 +19252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -19270,7 +19266,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -19284,7 +19280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -19298,7 +19294,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -19312,7 +19308,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -19332,7 +19328,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -19352,7 +19348,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -19366,7 +19362,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -19380,7 +19376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -19394,7 +19390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19408,7 +19404,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>394</v>
       </c>
@@ -19428,7 +19424,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -19448,7 +19444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -19462,7 +19458,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -19476,7 +19472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -19490,7 +19486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -19504,7 +19500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>502</v>
       </c>
@@ -19524,7 +19520,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -19544,7 +19540,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -19558,7 +19554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -19572,7 +19568,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -19586,7 +19582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -19600,7 +19596,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -19614,7 +19610,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -19634,7 +19630,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -19648,7 +19644,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -19668,7 +19664,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>95</v>
       </c>
@@ -19682,7 +19678,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -19696,7 +19692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -19710,7 +19706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -19724,7 +19720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -19738,7 +19734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>32</v>
       </c>
@@ -19752,7 +19748,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -19772,7 +19768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -19786,8 +19782,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -19807,7 +19803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -19821,7 +19817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -19835,7 +19831,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -19849,7 +19845,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19863,7 +19859,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -19877,7 +19873,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -19897,7 +19893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -19911,7 +19907,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -19925,7 +19921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -19939,7 +19935,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -19953,7 +19949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -19973,7 +19969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -19987,7 +19983,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -20001,7 +19997,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -20021,7 +20017,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -20041,7 +20037,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -20055,7 +20051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -20069,7 +20065,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>526</v>
       </c>
@@ -20089,7 +20085,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -20109,7 +20105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -20123,7 +20119,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -20137,7 +20133,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20151,7 +20147,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -20171,7 +20167,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -20185,7 +20181,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -20199,7 +20195,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>31</v>
       </c>
@@ -20213,7 +20209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>32</v>
       </c>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5028" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E25B0A4-4341-4BB0-84C6-27DBF95463CC}"/>
+  <xr:revisionPtr revIDLastSave="5029" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C263D18D-F677-4F5D-8DA2-DB102F256A65}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5305,6 +5305,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5611,18 +5615,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5741,17 +5745,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5847,7 +5851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6103,7 +6107,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6425,8 +6429,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6488,7 +6492,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6883,17 +6887,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6947,7 +6951,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6961,7 +6965,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7009,7 +7013,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7049,7 +7053,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7111,7 +7115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7241,7 +7245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7607,7 +7611,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7703,7 +7707,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7926,17 +7930,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7956,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -7990,7 +7994,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8010,7 +8014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8030,7 +8034,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8188,7 +8192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8222,7 +8226,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8312,7 +8316,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8354,7 +8358,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8506,7 +8510,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8726,7 +8730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8870,7 +8874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8972,17 +8976,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9040,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9082,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9098,7 +9102,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9126,7 +9130,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9154,7 +9158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9230,7 +9234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9264,7 +9268,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +9282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9371,7 +9375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9540,7 +9544,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9574,7 +9578,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9616,7 +9620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9678,7 +9682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9844,7 +9848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9935,17 +9939,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -9985,7 +9989,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10005,7 +10009,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10019,7 +10023,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10033,7 +10037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10047,7 +10051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10095,7 +10099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10109,7 +10113,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10123,7 +10127,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10137,7 +10141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10205,7 +10209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10253,7 +10257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10267,7 +10271,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10337,7 +10341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10399,7 +10403,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10413,7 +10417,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10447,7 +10451,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10467,7 +10471,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10495,7 +10499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10661,7 +10665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10695,7 +10699,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10709,7 +10713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10723,7 +10727,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10743,7 +10747,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10757,7 +10761,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10777,7 +10781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10825,7 +10829,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10924,17 +10928,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -10988,7 +10992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11008,7 +11012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11036,7 +11040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11064,7 +11068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11078,7 +11082,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11098,7 +11102,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11112,7 +11116,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11216,7 +11220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11250,7 +11254,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11312,7 +11316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11326,7 +11330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11371,17 +11375,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11401,7 +11405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11421,7 +11425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11545,7 +11549,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11559,7 +11563,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11607,7 +11611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11627,7 +11631,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11641,7 +11645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11695,7 +11699,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11715,7 +11719,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11777,7 +11781,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11791,7 +11795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11859,7 +11863,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11873,7 +11877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11893,7 +11897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11907,7 +11911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11921,7 +11925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11969,7 +11973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12015,17 +12019,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12045,7 +12049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12079,7 +12083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12093,7 +12097,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12121,7 +12125,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12141,7 +12145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12169,7 +12173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12217,7 +12221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12299,7 +12303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12313,7 +12317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12341,7 +12345,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12361,7 +12365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12375,7 +12379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12389,7 +12393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12403,7 +12407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12437,7 +12441,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12457,7 +12461,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12491,7 +12495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12553,7 +12557,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12615,7 +12619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12657,7 +12661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12671,7 +12675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12705,7 +12709,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12719,7 +12723,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12753,7 +12757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12767,7 +12771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12781,7 +12785,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12809,7 +12813,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12829,7 +12833,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12843,7 +12847,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12883,17 +12887,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12935,7 +12939,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12957,7 +12961,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12979,7 +12983,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13021,7 +13025,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13042,7 +13046,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13084,7 +13088,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13105,7 +13109,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13126,7 +13130,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13147,7 +13151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13168,7 +13172,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13189,7 +13193,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13231,7 +13235,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13273,7 +13277,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -13298,7 +13302,7 @@
         <v>0.58434782608695657</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>722</v>
       </c>
@@ -13349,17 +13353,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13399,7 +13403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13413,7 +13417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -13427,7 +13431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -13441,7 +13445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -13455,7 +13459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13475,7 +13479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -13531,7 +13535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13549,17 +13553,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13579,7 +13583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13613,7 +13617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13633,7 +13637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13647,7 +13651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13675,7 +13679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13689,7 +13693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13709,7 +13713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13729,7 +13733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13785,7 +13789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -13819,7 +13823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -13833,7 +13837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13853,7 +13857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13867,7 +13871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -13881,7 +13885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -13895,7 +13899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -13909,7 +13913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -13929,7 +13933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -13943,7 +13947,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -13957,7 +13961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -13999,7 +14003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14019,7 +14023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14039,7 +14043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14073,8 +14077,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -14154,17 +14158,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14184,7 +14188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -14204,7 +14208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -14218,7 +14222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -14232,7 +14236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>61</v>
       </c>
@@ -14280,7 +14284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -14300,7 +14304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -14314,7 +14318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -14334,7 +14338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -14362,7 +14366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -14382,7 +14386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -14396,7 +14400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -14410,7 +14414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -14430,7 +14434,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14444,7 +14448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -14486,7 +14490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -14506,7 +14510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -14534,7 +14538,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14554,7 +14558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -14568,7 +14572,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -14588,7 +14592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -14602,7 +14606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -14622,7 +14626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -14642,7 +14646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -14656,7 +14660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14670,7 +14674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -14690,7 +14694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -14704,7 +14708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -14718,7 +14722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -14732,7 +14736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -14746,7 +14750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -14766,7 +14770,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -14786,7 +14790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -14806,7 +14810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -14820,7 +14824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -14834,8 +14838,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -14855,7 +14859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>25</v>
       </c>
@@ -14917,7 +14921,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -14931,7 +14935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -14951,7 +14955,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14965,7 +14969,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -15013,7 +15017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -15045,17 +15049,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -15163,7 +15167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -15191,7 +15195,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -15239,7 +15243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -15253,7 +15257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -15267,7 +15271,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -15301,7 +15305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -15329,7 +15333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -15343,7 +15347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -15363,7 +15367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -15377,7 +15381,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -15391,7 +15395,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15419,7 +15423,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -15433,7 +15437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -15447,7 +15451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -15467,7 +15471,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -15487,7 +15491,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>145</v>
       </c>
@@ -15529,7 +15533,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -15563,7 +15567,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -15617,7 +15621,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -15665,7 +15669,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -15685,7 +15689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -15699,7 +15703,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>725</v>
       </c>
@@ -15719,7 +15723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>61</v>
       </c>
@@ -15733,7 +15737,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -15753,7 +15757,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -15767,7 +15771,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15781,7 +15785,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>61</v>
       </c>
@@ -15815,7 +15819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -15835,7 +15839,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -15855,7 +15859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -15875,7 +15879,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -15903,7 +15907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -15917,7 +15921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -15937,7 +15941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>61</v>
       </c>
@@ -15951,7 +15955,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -15971,7 +15975,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15985,7 +15989,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>25</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>31</v>
       </c>
@@ -16013,7 +16017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>32</v>
       </c>
@@ -16027,7 +16031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -16047,7 +16051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -16067,7 +16071,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -16099,17 +16103,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16129,7 +16133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -16149,7 +16153,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -16163,7 +16167,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16177,7 +16181,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -16197,7 +16201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -16211,7 +16215,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -16225,7 +16229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -16259,7 +16263,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -16273,7 +16277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -16293,7 +16297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -16313,7 +16317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -16333,7 +16337,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -16353,7 +16357,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -16367,7 +16371,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -16387,7 +16391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>95</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16435,7 +16439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16450,7 +16454,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -16465,7 +16469,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -16480,7 +16484,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -16534,7 +16538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -16548,7 +16552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -16568,7 +16572,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -16608,7 +16612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -16622,7 +16626,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -16642,7 +16646,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -16656,7 +16660,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -16676,7 +16680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -16696,7 +16700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -16710,7 +16714,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -16778,7 +16782,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -16792,7 +16796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -16812,7 +16816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>720</v>
       </c>
@@ -16852,7 +16856,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -16866,7 +16870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -16934,7 +16938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -16968,7 +16972,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16982,7 +16986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -17002,7 +17006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -17016,7 +17020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -17030,7 +17034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>31</v>
       </c>
@@ -17062,17 +17066,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17092,7 +17096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -17112,7 +17116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17132,7 +17136,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -17160,7 +17164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -17200,7 +17204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -17234,7 +17238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -17248,7 +17252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -17268,7 +17272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -17282,7 +17286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -17296,7 +17300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -17310,7 +17314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17324,10 +17328,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17347,7 +17351,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -17361,7 +17365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -17375,8 +17379,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>95</v>
       </c>
@@ -17410,7 +17414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -17444,7 +17448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17458,7 +17462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17472,7 +17476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -17492,7 +17496,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -17506,7 +17510,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -17521,7 +17525,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -17535,7 +17539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -17555,7 +17559,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -17575,7 +17579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -17595,7 +17599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -17609,7 +17613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -17623,7 +17627,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -17637,7 +17641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -17651,7 +17655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -17671,7 +17675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -17691,7 +17695,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17711,7 +17715,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -17731,7 +17735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -17751,7 +17755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -17765,7 +17769,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -17785,7 +17789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -17805,7 +17809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>95</v>
       </c>
@@ -17819,7 +17823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>291</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -17853,7 +17857,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -17873,7 +17877,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -17893,7 +17897,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -17907,7 +17911,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -17927,7 +17931,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17959,17 +17963,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17989,7 +17993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -18009,7 +18013,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -18023,7 +18027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18043,7 +18047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -18057,7 +18061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18077,7 +18081,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -18097,7 +18101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -18117,7 +18121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -18151,7 +18155,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -18171,7 +18175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -18185,7 +18189,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -18205,7 +18209,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -18219,7 +18223,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -18233,7 +18237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -18253,7 +18257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -18267,7 +18271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -18287,7 +18291,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -18307,7 +18311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -18349,7 +18353,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -18363,7 +18367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -18377,7 +18381,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -18391,7 +18395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -18411,7 +18415,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>450</v>
       </c>
@@ -18431,7 +18435,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -18445,7 +18449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -18459,7 +18463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -18473,7 +18477,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -18487,7 +18491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -18507,7 +18511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18535,7 +18539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -18549,7 +18553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -18563,7 +18567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -18583,7 +18587,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -18597,7 +18601,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -18617,7 +18621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -18631,7 +18635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -18645,7 +18649,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -18659,7 +18663,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>32</v>
       </c>
@@ -18673,7 +18677,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -18693,7 +18697,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -18707,7 +18711,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -18727,7 +18731,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>16</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -18755,7 +18759,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -18769,7 +18773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -18789,7 +18793,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -18803,7 +18807,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18817,7 +18821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -18831,7 +18835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>32</v>
       </c>
@@ -18845,7 +18849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -18865,7 +18869,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>95</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -18893,7 +18897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -18907,7 +18911,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -18927,7 +18931,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -18941,7 +18945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -18955,7 +18959,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>423</v>
       </c>
@@ -18975,7 +18979,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -18995,7 +18999,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>25</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>31</v>
       </c>
@@ -19023,7 +19027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>32</v>
       </c>
@@ -19037,7 +19041,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -19057,7 +19061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>486</v>
       </c>
@@ -19071,7 +19075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>486</v>
       </c>
@@ -19085,7 +19089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>31</v>
       </c>
@@ -19099,7 +19103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>32</v>
       </c>
@@ -19182,17 +19186,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19212,7 +19216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -19232,7 +19236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -19252,7 +19256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -19266,7 +19270,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -19280,7 +19284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -19294,7 +19298,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -19308,7 +19312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -19328,7 +19332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -19348,7 +19352,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -19362,7 +19366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -19376,7 +19380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -19390,7 +19394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19404,7 +19408,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>394</v>
       </c>
@@ -19424,7 +19428,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -19444,7 +19448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -19458,7 +19462,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -19472,7 +19476,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -19486,7 +19490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -19500,7 +19504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>502</v>
       </c>
@@ -19520,7 +19524,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -19540,7 +19544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -19554,7 +19558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -19568,7 +19572,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -19582,7 +19586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -19596,7 +19600,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -19610,7 +19614,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -19630,7 +19634,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -19644,7 +19648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -19664,7 +19668,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>95</v>
       </c>
@@ -19678,7 +19682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -19692,7 +19696,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -19706,7 +19710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -19720,7 +19724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -19734,7 +19738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>32</v>
       </c>
@@ -19748,7 +19752,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -19768,7 +19772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -19782,8 +19786,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -19803,7 +19807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -19817,7 +19821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -19831,7 +19835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -19845,7 +19849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19859,7 +19863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -19873,7 +19877,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -19893,7 +19897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -19907,7 +19911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -19921,7 +19925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -19935,7 +19939,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -19949,7 +19953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -19983,7 +19987,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -19997,7 +20001,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -20017,7 +20021,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -20037,7 +20041,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -20051,7 +20055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>526</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -20105,7 +20109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -20119,7 +20123,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -20133,7 +20137,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20147,7 +20151,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -20167,7 +20171,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -20181,7 +20185,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -20195,7 +20199,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>31</v>
       </c>
@@ -20209,7 +20213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>32</v>
       </c>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5029" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C263D18D-F677-4F5D-8DA2-DB102F256A65}"/>
+  <xr:revisionPtr revIDLastSave="5075" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54974DF4-D7BD-481D-BFCE-9C4009EAC8A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -30,9 +30,11 @@
     <sheet name="2020" sheetId="27" r:id="rId15"/>
     <sheet name="2021" sheetId="28" r:id="rId16"/>
     <sheet name="2022" sheetId="31" r:id="rId17"/>
-    <sheet name="Stats" sheetId="1" r:id="rId18"/>
-    <sheet name="Wins-Losses" sheetId="32" r:id="rId19"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId20"/>
+    <sheet name="2023" sheetId="34" r:id="rId18"/>
+    <sheet name="2024" sheetId="35" r:id="rId19"/>
+    <sheet name="Stats" sheetId="1" r:id="rId20"/>
+    <sheet name="Wins-Losses" sheetId="36" r:id="rId21"/>
+    <sheet name="Winning Percentile Range" sheetId="37" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="772">
   <si>
     <t>ROUND</t>
   </si>
@@ -2362,6 +2364,12 @@
   </si>
   <si>
     <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-3</t>
   </si>
 </sst>
 </file>
@@ -2908,15 +2916,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Simona Halep (ROMANIA):</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Wins-Losses</a:t>
+              <a:t>Simona Halep (ROMANIA): Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2983,10 +2983,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -3038,15 +3038,21 @@
                 <c:pt idx="16">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$18</c:f>
+              <c:f>Stats!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3098,12 +3104,18 @@
                 <c:pt idx="16">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF64-463B-9261-76D48817C310}"/>
+              <c16:uniqueId val="{00000000-F912-496C-BD79-59AF8A34B4DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3133,10 +3145,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -3188,15 +3200,21 @@
                 <c:pt idx="16">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$18</c:f>
+              <c:f>Stats!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3248,12 +3266,18 @@
                 <c:pt idx="16">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF64-463B-9261-76D48817C310}"/>
+              <c16:uniqueId val="{00000001-F912-496C-BD79-59AF8A34B4DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3267,11 +3291,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1222363903"/>
-        <c:axId val="1222363487"/>
+        <c:axId val="11768208"/>
+        <c:axId val="11767248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1222363903"/>
+        <c:axId val="11768208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,7 +3393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222363487"/>
+        <c:crossAx val="11767248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3377,7 +3401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1222363487"/>
+        <c:axId val="11767248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222363903"/>
+        <c:crossAx val="11768208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3593,13 +3617,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Simona Halep</a:t>
+              <a:t>Simona Halep (ROMANIA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (ROMANIA): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3692,10 +3711,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -3747,15 +3766,21 @@
                 <c:pt idx="16">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$18</c:f>
+              <c:f>Stats!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
@@ -3807,13 +3832,19 @@
                 <c:pt idx="16">
                   <c:v>0.71794871794871795</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E3B-4A30-B130-3C6FEBDE225B}"/>
+              <c16:uniqueId val="{00000001-68DC-4E67-B379-E5E08ED01B45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3827,11 +3858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1712375439"/>
-        <c:axId val="1712373359"/>
+        <c:axId val="11756208"/>
+        <c:axId val="11759088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1712375439"/>
+        <c:axId val="11756208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,7 +3960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712373359"/>
+        <c:crossAx val="11759088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3937,7 +3968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1712373359"/>
+        <c:axId val="11759088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4043,7 +4074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712375439"/>
+        <c:crossAx val="11756208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4702,7 +4733,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4810,11 +4841,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4825,11 +4851,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4861,9 +4882,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5218,24 +5236,26 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8C31A373-524C-46DB-B8B5-5ED09ADA9231}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{376DA892-DACF-488E-9347-7CE5EDFAECB4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C423CD26-C759-46C2-921F-097420D01674}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C97EC45B-7CFF-4C3F-9768-9AB6E4FD265C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5243,13 +5263,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="6278880" cy="8107680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1A8DC9-9EFC-4451-AAC1-ABE23FBE2C18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1E8F7F-BFA6-97B0-7E58-87176A34122E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5276,13 +5296,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B0CDEE-9688-4358-8CB7-953598C6B61E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF65F43A-98D3-CC6E-53BE-A885ACF00BD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5305,14 +5325,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5350,7 +5366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5456,7 +5472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5598,7 +5614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5611,22 +5627,22 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5646,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5666,7 +5682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5680,7 +5696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5700,7 +5716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5714,7 +5730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5741,21 +5757,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5795,7 +5811,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5823,7 +5839,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5837,7 +5853,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5851,7 +5867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5871,7 +5887,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5885,7 +5901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5899,7 +5915,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5913,7 +5929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5927,7 +5943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5944,7 +5960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5955,7 +5971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5975,7 +5991,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +6005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6003,7 +6019,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6017,7 +6033,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6031,7 +6047,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6051,7 +6067,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +6081,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6079,7 +6095,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6093,7 +6109,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6107,7 +6123,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6121,7 +6137,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6141,7 +6157,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6155,7 +6171,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6169,7 +6185,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6183,7 +6199,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6197,7 +6213,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6217,7 +6233,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6231,7 +6247,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6245,7 +6261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6265,7 +6281,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6285,7 +6301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6299,7 +6315,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6313,7 +6329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6327,7 +6343,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6347,7 +6363,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6361,7 +6377,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6381,7 +6397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6395,7 +6411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6409,7 +6425,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6429,8 +6445,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6450,7 +6466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6464,7 +6480,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6478,7 +6494,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6492,7 +6508,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6506,7 +6522,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6526,7 +6542,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6540,7 +6556,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6554,7 +6570,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6568,7 +6584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6582,7 +6598,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6602,7 +6618,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6616,7 +6632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6630,7 +6646,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6644,7 +6660,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6658,7 +6674,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6672,7 +6688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6692,7 +6708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6722,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6720,7 +6736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6740,7 +6756,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6754,7 +6770,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6774,7 +6790,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6794,7 +6810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6808,7 +6824,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6883,21 +6899,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6917,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6937,7 +6953,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6951,7 +6967,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6965,7 +6981,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -6985,7 +7001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -7002,7 +7018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7013,7 +7029,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7033,7 +7049,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7053,7 +7069,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7073,7 +7089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7087,7 +7103,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7101,7 +7117,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7115,7 +7131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7135,7 +7151,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7149,7 +7165,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7163,7 +7179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7177,7 +7193,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7194,7 +7210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7205,7 +7221,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7225,7 +7241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7245,7 +7261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7259,7 +7275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7273,7 +7289,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7287,7 +7303,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7315,7 +7331,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7335,7 +7351,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7355,7 +7371,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7369,7 +7385,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7383,7 +7399,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7397,7 +7413,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7417,7 +7433,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7431,7 +7447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7445,7 +7461,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7459,7 +7475,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7473,7 +7489,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7493,7 +7509,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7521,7 +7537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7535,7 +7551,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7549,7 +7565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7569,7 +7585,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7583,7 +7599,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7597,7 +7613,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7611,7 +7627,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7625,7 +7641,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7645,7 +7661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7659,7 +7675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7673,7 +7689,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7687,7 +7703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7707,7 +7723,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7721,7 +7737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7735,7 +7751,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7749,7 +7765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7763,7 +7779,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7783,7 +7799,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7797,7 +7813,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7811,7 +7827,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7825,7 +7841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7845,7 +7861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7859,7 +7875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7879,7 +7895,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7893,7 +7909,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7926,21 +7942,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7960,7 +7976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7980,7 +7996,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -7994,7 +8010,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8014,7 +8030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8034,7 +8050,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8048,7 +8064,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8068,7 +8084,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8082,7 +8098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8102,7 +8118,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8116,7 +8132,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8130,7 +8146,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8144,7 +8160,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8164,7 +8180,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8178,7 +8194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8208,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8212,7 +8228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8226,7 +8242,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8240,7 +8256,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8254,7 +8270,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8268,7 +8284,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8282,7 +8298,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8302,7 +8318,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8316,7 +8332,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8330,7 +8346,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8344,7 +8360,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8358,7 +8374,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8378,7 +8394,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8392,7 +8408,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8406,7 +8422,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8420,7 +8436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8434,7 +8450,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8448,7 +8464,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8462,7 +8478,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8482,7 +8498,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8496,7 +8512,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8510,7 +8526,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8530,7 +8546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8544,7 +8560,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8558,7 +8574,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8588,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8586,7 +8602,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8606,7 +8622,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8620,7 +8636,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8634,7 +8650,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8654,7 +8670,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8668,7 +8684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8682,7 +8698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8696,7 +8712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8716,7 +8732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +8746,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8744,7 +8760,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8758,7 +8774,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8772,7 +8788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8792,7 +8808,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8812,7 +8828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8832,7 +8848,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8846,7 +8862,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8860,7 +8876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8874,7 +8890,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8888,7 +8904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8902,7 +8918,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8922,7 +8938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8936,7 +8952,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8972,21 +8988,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9006,7 +9022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9026,7 +9042,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9040,7 +9056,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9054,7 +9070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9068,7 +9084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9082,7 +9098,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9102,7 +9118,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9116,7 +9132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9130,7 +9146,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9144,7 +9160,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9158,7 +9174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9172,7 +9188,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9186,7 +9202,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9206,7 +9222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9220,7 +9236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9234,7 +9250,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9248,7 +9264,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9268,7 +9284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9282,7 +9298,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9296,7 +9312,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9310,7 +9326,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9324,7 +9340,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9344,7 +9360,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9358,7 +9374,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9375,7 +9391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9386,7 +9402,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9406,7 +9422,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9420,7 +9436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9440,7 +9456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9454,7 +9470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9468,7 +9484,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9482,7 +9498,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9502,7 +9518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9516,7 +9532,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9530,7 +9546,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9544,7 +9560,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9558,7 +9574,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9578,7 +9594,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9592,7 +9608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9606,7 +9622,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9620,7 +9636,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9634,7 +9650,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9648,7 +9664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9662,7 +9678,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9682,7 +9698,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9696,7 +9712,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9710,7 +9726,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9730,7 +9746,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9744,7 +9760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9758,7 +9774,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9772,7 +9788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9786,7 +9802,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9806,7 +9822,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9820,7 +9836,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9834,7 +9850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9848,7 +9864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9862,7 +9878,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9882,7 +9898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9902,7 +9918,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9935,21 +9951,21 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9969,7 +9985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -9989,7 +10005,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10009,7 +10025,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10023,7 +10039,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10037,7 +10053,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10051,7 +10067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10068,7 +10084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10079,7 +10095,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10099,7 +10115,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10113,7 +10129,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10127,7 +10143,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10141,7 +10157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10161,7 +10177,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +10191,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10189,7 +10205,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10209,7 +10225,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10223,7 +10239,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10237,7 +10253,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10257,7 +10273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +10287,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10285,7 +10301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10299,7 +10315,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10313,7 +10329,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10330,7 +10346,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10341,7 +10357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10361,7 +10377,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10375,7 +10391,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10389,7 +10405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10403,7 +10419,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10417,7 +10433,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10431,7 +10447,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10451,7 +10467,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10471,7 +10487,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10485,7 +10501,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10499,7 +10515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10513,7 +10529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10527,7 +10543,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10547,7 +10563,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10561,7 +10577,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10575,7 +10591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10595,7 +10611,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10609,7 +10625,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10623,7 +10639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10637,7 +10653,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10651,7 +10667,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10665,7 +10681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10679,7 +10695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10699,7 +10715,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10713,7 +10729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10727,7 +10743,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10747,7 +10763,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10761,7 +10777,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10781,7 +10797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10795,7 +10811,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10815,7 +10831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10829,7 +10845,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10849,7 +10865,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10863,7 +10879,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10883,7 +10899,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10897,7 +10913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10924,21 +10940,21 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10958,7 +10974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10978,7 +10994,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -10992,7 +11008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11012,7 +11028,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11026,7 +11042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11040,7 +11056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11054,7 +11070,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11068,7 +11084,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11082,7 +11098,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11102,7 +11118,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11116,7 +11132,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11130,7 +11146,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11144,7 +11160,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11164,7 +11180,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11178,7 +11194,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11192,7 +11208,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11206,7 +11222,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11220,7 +11236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11240,7 +11256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11254,7 +11270,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11268,7 +11284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11282,7 +11298,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11296,7 +11312,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11316,7 +11332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11330,7 +11346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11344,7 +11360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11371,21 +11387,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11405,7 +11421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11425,7 +11441,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11439,7 +11455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11473,7 +11489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11487,7 +11503,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11501,7 +11517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11515,7 +11531,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11529,7 +11545,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11549,7 +11565,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11563,7 +11579,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11583,7 +11599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11597,7 +11613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11611,7 +11627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11631,7 +11647,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11645,7 +11661,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11659,7 +11675,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11679,7 +11695,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11699,7 +11715,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11719,7 +11735,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11733,7 +11749,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11753,7 +11769,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11767,7 +11783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11781,7 +11797,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11795,7 +11811,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11815,7 +11831,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11829,7 +11845,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11849,7 +11865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11863,7 +11879,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11877,7 +11893,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11897,7 +11913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11911,7 +11927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11925,7 +11941,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11939,7 +11955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11953,7 +11969,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11973,7 +11989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -11987,7 +12003,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12015,21 +12031,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12049,7 +12065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12069,7 +12085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12083,7 +12099,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12097,7 +12113,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12111,7 +12127,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12125,7 +12141,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12145,7 +12161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12159,7 +12175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12173,7 +12189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12187,7 +12203,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12207,7 +12223,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12221,7 +12237,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12235,7 +12251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12249,7 +12265,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12269,7 +12285,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12289,7 +12305,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12303,7 +12319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12317,7 +12333,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12331,7 +12347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12345,7 +12361,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12365,7 +12381,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12379,7 +12395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12393,7 +12409,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12407,7 +12423,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12427,7 +12443,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12441,7 +12457,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12461,7 +12477,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12475,7 +12491,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12495,7 +12511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12509,7 +12525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12523,7 +12539,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12537,7 +12553,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12557,7 +12573,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12571,7 +12587,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12585,7 +12601,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12599,7 +12615,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12619,7 +12635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12633,7 +12649,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12647,7 +12663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12661,7 +12677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12675,7 +12691,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12689,7 +12705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12709,7 +12725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12723,7 +12739,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12743,7 +12759,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12757,7 +12773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12771,7 +12787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12785,7 +12801,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12799,7 +12815,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12813,7 +12829,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12833,7 +12849,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12847,7 +12863,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12877,27 +12893,361 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BC6103-5839-4809-8BEE-538160D495E3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3373241E-6C25-47D2-9923-AA1D59454726}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701F1D93-99EC-40C9-8427-4E2C051053D7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12917,7 +13267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12934,12 +13284,12 @@
         <v>2</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F20" si="0">(D2-E2)/D2</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12961,7 +13311,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12983,7 +13333,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13004,7 +13354,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13025,7 +13375,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13046,7 +13396,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13067,7 +13417,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13088,7 +13438,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13109,7 +13459,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13130,7 +13480,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13151,7 +13501,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13172,7 +13522,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13193,7 +13543,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13214,7 +13564,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13235,7 +13585,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13256,7 +13606,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13277,58 +13627,100 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3">
-        <f>SUM(B2:B18)</f>
-        <v>276</v>
-      </c>
-      <c r="C19" s="3">
-        <f>SUM(C2:C18)</f>
+      <c r="B21" s="3">
+        <f>SUM(B2:B20)</f>
+        <v>277</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(C2:C20)</f>
         <v>24</v>
       </c>
-      <c r="D19" s="3">
-        <f>SUM(D2:D18)</f>
+      <c r="D21" s="3">
+        <f>SUM(D2:D20)</f>
         <v>575</v>
       </c>
-      <c r="E19" s="3">
-        <f>SUM(E2:E18)</f>
-        <v>239</v>
-      </c>
-      <c r="F19" s="4">
-        <f>(D19-E19)/D19</f>
-        <v>0.58434782608695657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="E21" s="3">
+        <f>SUM(E2:E20)</f>
+        <v>240</v>
+      </c>
+      <c r="F21" s="4">
+        <f>(D21-E21)/D21</f>
+        <v>0.58260869565217388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B20" s="3">
-        <f>AVERAGE(B2:B18)</f>
-        <v>16.235294117647058</v>
-      </c>
-      <c r="C20" s="3">
-        <f>AVERAGE(C2:C18)</f>
-        <v>1.411764705882353</v>
-      </c>
-      <c r="D20" s="3">
-        <f>AVERAGE(D2:D18)</f>
-        <v>33.823529411764703</v>
-      </c>
-      <c r="E20" s="3">
-        <f>AVERAGE(E2:E18)</f>
-        <v>14.058823529411764</v>
-      </c>
-      <c r="F20" s="4">
-        <f>(D20-E20)/D20</f>
-        <v>0.58434782608695646</v>
+      <c r="B22" s="3">
+        <f>AVERAGE(B2:B20)</f>
+        <v>14.578947368421053</v>
+      </c>
+      <c r="C22" s="3">
+        <f>AVERAGE(C2:C20)</f>
+        <v>1.263157894736842</v>
+      </c>
+      <c r="D22" s="3">
+        <f>AVERAGE(D2:D20)</f>
+        <v>30.263157894736842</v>
+      </c>
+      <c r="E22" s="3">
+        <f>AVERAGE(E2:E20)</f>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="F22" s="4">
+        <f>(D22-E22)/D22</f>
+        <v>0.58260869565217388</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F18">
+  <conditionalFormatting sqref="F2:F20">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -13342,206 +13734,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701F1D93-99EC-40C9-8427-4E2C051053D7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3648FA-BBE4-4706-AA41-D11A2FD1F2D2}">
   <sheetPr>
@@ -13549,21 +13741,21 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13583,7 +13775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13603,7 +13795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13617,7 +13809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13637,7 +13829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13651,7 +13843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13665,7 +13857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13679,7 +13871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13693,7 +13885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13713,7 +13905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13733,7 +13925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13747,7 +13939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13761,7 +13953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13775,7 +13967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13789,7 +13981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -13809,7 +14001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -13823,7 +14015,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -13837,7 +14029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13857,7 +14049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13871,7 +14063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -13885,7 +14077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -13899,7 +14091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -13913,7 +14105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -13933,7 +14125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -13947,7 +14139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -13961,7 +14153,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -13975,7 +14167,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -13989,7 +14181,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -14003,7 +14195,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14023,7 +14215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14043,7 +14235,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14057,7 +14249,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14077,8 +14269,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14098,7 +14290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14112,7 +14304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14126,7 +14318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -14154,21 +14346,21 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14188,7 +14380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -14208,7 +14400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -14222,7 +14414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -14236,7 +14428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -14250,7 +14442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14270,7 +14462,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>61</v>
       </c>
@@ -14284,7 +14476,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -14304,7 +14496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -14318,7 +14510,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -14338,7 +14530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -14352,7 +14544,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -14366,7 +14558,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -14386,7 +14578,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -14400,7 +14592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -14414,7 +14606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -14434,7 +14626,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14448,7 +14640,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14462,7 +14654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -14476,7 +14668,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -14490,7 +14682,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -14510,7 +14702,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -14524,7 +14716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14558,7 +14750,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>61</v>
       </c>
@@ -14572,7 +14764,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -14592,7 +14784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -14606,7 +14798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -14626,7 +14818,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -14646,7 +14838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -14660,7 +14852,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -14674,7 +14866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -14694,7 +14886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -14708,7 +14900,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -14722,7 +14914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -14736,7 +14928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -14750,7 +14942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -14770,7 +14962,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -14790,7 +14982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -14810,7 +15002,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -14824,7 +15016,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -14838,8 +15030,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -14859,7 +15051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -14873,7 +15065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14893,7 +15085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14907,7 +15099,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>25</v>
       </c>
@@ -14921,7 +15113,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>31</v>
       </c>
@@ -14935,7 +15127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -14955,7 +15147,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14969,7 +15161,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -14983,7 +15175,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -14997,7 +15189,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -15017,7 +15209,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -15045,21 +15237,21 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15079,7 +15271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -15099,7 +15291,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -15119,7 +15311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -15133,7 +15325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15153,7 +15345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -15167,7 +15359,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -15181,7 +15373,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -15195,7 +15387,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -15215,7 +15407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -15229,7 +15421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -15243,7 +15435,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -15257,7 +15449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -15271,7 +15463,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -15285,7 +15477,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -15305,7 +15497,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -15319,7 +15511,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -15333,7 +15525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -15347,7 +15539,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -15367,7 +15559,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -15381,7 +15573,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -15395,7 +15587,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15409,7 +15601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15423,7 +15615,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -15437,7 +15629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -15451,7 +15643,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -15471,7 +15663,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -15491,7 +15683,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -15505,7 +15697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -15519,7 +15711,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>145</v>
       </c>
@@ -15533,7 +15725,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -15553,7 +15745,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -15567,7 +15759,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -15587,7 +15779,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -15607,7 +15799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -15621,7 +15813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -15635,7 +15827,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -15649,7 +15841,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -15669,7 +15861,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -15689,7 +15881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -15703,7 +15895,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>725</v>
       </c>
@@ -15723,7 +15915,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>61</v>
       </c>
@@ -15737,7 +15929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -15757,7 +15949,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>61</v>
       </c>
@@ -15771,7 +15963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15785,7 +15977,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -15805,7 +15997,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>61</v>
       </c>
@@ -15819,7 +16011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -15839,7 +16031,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -15859,7 +16051,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -15879,7 +16071,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -15893,7 +16085,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -15907,7 +16099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -15921,7 +16113,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -15941,7 +16133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>61</v>
       </c>
@@ -15955,7 +16147,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -15975,7 +16167,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15989,7 +16181,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>25</v>
       </c>
@@ -16003,7 +16195,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>31</v>
       </c>
@@ -16017,7 +16209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>32</v>
       </c>
@@ -16031,7 +16223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -16051,7 +16243,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -16071,7 +16263,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -16099,21 +16291,21 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16133,7 +16325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -16153,7 +16345,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -16167,7 +16359,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16181,7 +16373,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -16201,7 +16393,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>61</v>
       </c>
@@ -16215,7 +16407,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -16229,7 +16421,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -16249,7 +16441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>95</v>
       </c>
@@ -16263,7 +16455,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -16277,7 +16469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -16297,7 +16489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -16317,7 +16509,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>328</v>
       </c>
@@ -16337,7 +16529,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -16357,7 +16549,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -16371,7 +16563,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -16391,7 +16583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>95</v>
       </c>
@@ -16405,7 +16597,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -16425,7 +16617,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16439,7 +16631,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16454,7 +16646,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -16469,7 +16661,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -16484,7 +16676,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -16504,7 +16696,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16524,7 +16716,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -16538,7 +16730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -16552,7 +16744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -16572,7 +16764,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -16592,7 +16784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -16612,7 +16804,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -16626,7 +16818,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -16646,7 +16838,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -16660,7 +16852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -16680,7 +16872,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -16700,7 +16892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -16714,7 +16906,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -16734,7 +16926,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -16754,7 +16946,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -16768,7 +16960,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -16782,7 +16974,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -16796,7 +16988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -16816,7 +17008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -16836,7 +17028,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>720</v>
       </c>
@@ -16856,7 +17048,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -16870,7 +17062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -16884,7 +17076,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -16898,7 +17090,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -16918,7 +17110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -16938,7 +17130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -16952,7 +17144,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -16972,7 +17164,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16986,7 +17178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -17006,7 +17198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -17020,7 +17212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -17034,7 +17226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>31</v>
       </c>
@@ -17062,21 +17254,21 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17096,7 +17288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -17116,7 +17308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17136,7 +17328,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -17150,7 +17342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -17164,7 +17356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -17184,7 +17376,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -17204,7 +17396,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -17224,7 +17416,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -17238,7 +17430,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -17252,7 +17444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -17272,7 +17464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -17286,7 +17478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -17300,7 +17492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -17314,7 +17506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17328,10 +17520,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17351,7 +17543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -17365,7 +17557,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -17379,8 +17571,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -17400,7 +17592,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>95</v>
       </c>
@@ -17414,7 +17606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17620,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -17448,7 +17640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17462,7 +17654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17476,7 +17668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -17496,7 +17688,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -17510,7 +17702,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -17525,7 +17717,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -17539,7 +17731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -17559,7 +17751,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -17579,7 +17771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -17599,7 +17791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -17613,7 +17805,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -17627,7 +17819,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
@@ -17641,7 +17833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>32</v>
       </c>
@@ -17655,7 +17847,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -17675,7 +17867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -17695,7 +17887,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17715,7 +17907,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -17735,7 +17927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -17755,7 +17947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -17769,7 +17961,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -17789,7 +17981,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -17809,7 +18001,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>95</v>
       </c>
@@ -17823,7 +18015,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>291</v>
       </c>
@@ -17843,7 +18035,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -17857,7 +18049,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -17877,7 +18069,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -17897,7 +18089,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -17911,7 +18103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -17931,7 +18123,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -17959,21 +18151,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17993,7 +18185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -18013,7 +18205,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -18027,7 +18219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18047,7 +18239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -18061,7 +18253,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18081,7 +18273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -18101,7 +18293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -18121,7 +18313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -18135,7 +18327,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -18155,7 +18347,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -18175,7 +18367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>95</v>
       </c>
@@ -18189,7 +18381,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -18209,7 +18401,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>95</v>
       </c>
@@ -18223,7 +18415,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -18237,7 +18429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -18257,7 +18449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -18271,7 +18463,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -18291,7 +18483,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -18311,7 +18503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -18325,7 +18517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -18339,7 +18531,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -18353,7 +18545,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -18367,7 +18559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -18381,7 +18573,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -18395,7 +18587,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -18415,7 +18607,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>450</v>
       </c>
@@ -18435,7 +18627,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -18449,7 +18641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -18463,7 +18655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -18477,7 +18669,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -18491,7 +18683,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -18511,7 +18703,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18525,7 +18717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18539,7 +18731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -18553,7 +18745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -18567,7 +18759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -18587,7 +18779,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -18601,7 +18793,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -18621,7 +18813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -18635,7 +18827,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -18649,7 +18841,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -18663,7 +18855,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>32</v>
       </c>
@@ -18677,7 +18869,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -18697,7 +18889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -18711,7 +18903,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -18731,7 +18923,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>16</v>
       </c>
@@ -18745,7 +18937,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -18759,7 +18951,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -18773,7 +18965,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -18793,7 +18985,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -18807,7 +18999,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18821,7 +19013,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -18835,7 +19027,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>32</v>
       </c>
@@ -18849,7 +19041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -18869,7 +19061,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>95</v>
       </c>
@@ -18883,7 +19075,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -18897,7 +19089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -18911,7 +19103,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -18931,7 +19123,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -18945,7 +19137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -18959,7 +19151,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>423</v>
       </c>
@@ -18979,7 +19171,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -18999,7 +19191,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>25</v>
       </c>
@@ -19013,7 +19205,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>31</v>
       </c>
@@ -19027,7 +19219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>32</v>
       </c>
@@ -19041,7 +19233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -19061,7 +19253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>486</v>
       </c>
@@ -19075,7 +19267,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>486</v>
       </c>
@@ -19089,7 +19281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>31</v>
       </c>
@@ -19103,7 +19295,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>32</v>
       </c>
@@ -19182,21 +19374,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19216,7 +19408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -19236,7 +19428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -19256,7 +19448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -19270,7 +19462,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -19284,7 +19476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -19298,7 +19490,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -19312,7 +19504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -19332,7 +19524,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -19352,7 +19544,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -19366,7 +19558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -19380,7 +19572,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -19394,7 +19586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19408,7 +19600,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>394</v>
       </c>
@@ -19428,7 +19620,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -19448,7 +19640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -19462,7 +19654,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -19476,7 +19668,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -19490,7 +19682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -19504,7 +19696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>502</v>
       </c>
@@ -19524,7 +19716,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -19544,7 +19736,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -19558,7 +19750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -19572,7 +19764,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -19586,7 +19778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -19600,7 +19792,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -19614,7 +19806,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -19634,7 +19826,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -19648,7 +19840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -19668,7 +19860,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>95</v>
       </c>
@@ -19682,7 +19874,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -19696,7 +19888,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -19710,7 +19902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -19724,7 +19916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>31</v>
       </c>
@@ -19738,7 +19930,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>32</v>
       </c>
@@ -19752,7 +19944,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -19772,7 +19964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -19786,8 +19978,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -19807,7 +19999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -19821,7 +20013,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -19835,7 +20027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -19849,7 +20041,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19863,7 +20055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -19877,7 +20069,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -19897,7 +20089,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -19911,7 +20103,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -19925,7 +20117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -19939,7 +20131,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -19953,7 +20145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -19973,7 +20165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -19987,7 +20179,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -20001,7 +20193,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -20021,7 +20213,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -20041,7 +20233,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -20055,7 +20247,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -20069,7 +20261,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>526</v>
       </c>
@@ -20089,7 +20281,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -20109,7 +20301,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -20123,7 +20315,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -20137,7 +20329,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20151,7 +20343,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -20171,7 +20363,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -20185,7 +20377,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -20199,7 +20391,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>31</v>
       </c>
@@ -20213,7 +20405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>32</v>
       </c>

--- a/Tennis/WTA Tour/Simona Halep.xlsx
+++ b/Tennis/WTA Tour/Simona Halep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5075" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54974DF4-D7BD-481D-BFCE-9C4009EAC8A8}"/>
+  <xr:revisionPtr revIDLastSave="5086" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED3BE7C-F800-41B5-B501-ED73089349C6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3996" uniqueCount="775">
   <si>
     <t>ROUND</t>
   </si>
@@ -2370,6 +2370,15 @@
   </si>
   <si>
     <t>1-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>ITF PARIS ($10,000)</t>
+  </si>
+  <si>
+    <t>McCartney Kessler (USA)</t>
+  </si>
+  <si>
+    <t>5-7 3-2 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -3270,7 +3279,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5628,21 +5637,21 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5682,7 +5691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5696,7 +5705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5716,7 +5725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -5730,7 +5739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -5758,20 +5767,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -5811,7 +5820,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -5839,7 +5848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -5867,7 +5876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5887,7 +5896,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -5915,7 +5924,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -5943,7 +5952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>537</v>
       </c>
@@ -5960,7 +5969,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>538</v>
       </c>
@@ -5971,7 +5980,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -6005,7 +6014,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -6019,7 +6028,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -6033,7 +6042,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -6047,7 +6056,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6095,7 +6104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -6109,7 +6118,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -6123,7 +6132,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>32</v>
       </c>
@@ -6137,7 +6146,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6157,7 +6166,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -6171,7 +6180,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -6213,7 +6222,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>502</v>
       </c>
@@ -6233,7 +6242,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -6247,7 +6256,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -6281,7 +6290,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -6301,7 +6310,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6315,7 +6324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -6329,7 +6338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -6343,7 +6352,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -6377,7 +6386,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>555</v>
       </c>
@@ -6397,7 +6406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6411,7 +6420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -6425,7 +6434,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -6445,8 +6454,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -6466,7 +6475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6480,7 +6489,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -6508,7 +6517,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -6522,7 +6531,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6556,7 +6565,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -6570,7 +6579,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6584,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -6598,7 +6607,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -6618,7 +6627,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -6646,7 +6655,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6660,7 +6669,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>25</v>
       </c>
@@ -6674,7 +6683,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -6688,7 +6697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -6708,7 +6717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6722,7 +6731,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -6736,7 +6745,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -6756,7 +6765,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -6770,7 +6779,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -6790,7 +6799,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -6810,7 +6819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>486</v>
       </c>
@@ -6824,7 +6833,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>486</v>
       </c>
@@ -6900,20 +6909,20 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6933,7 +6942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -6953,7 +6962,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -6967,7 +6976,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6981,7 +6990,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -7001,7 +7010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -7018,7 +7027,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>542</v>
       </c>
@@ -7029,7 +7038,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -7049,7 +7058,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -7069,7 +7078,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -7089,7 +7098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -7103,7 +7112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -7117,7 +7126,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7131,7 +7140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -7151,7 +7160,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -7165,7 +7174,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7179,7 +7188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -7193,7 +7202,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -7210,7 +7219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>160</v>
       </c>
@@ -7221,7 +7230,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>502</v>
       </c>
@@ -7241,7 +7250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -7261,7 +7270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -7275,7 +7284,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -7303,7 +7312,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -7317,7 +7326,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -7331,7 +7340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -7351,7 +7360,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>95</v>
       </c>
@@ -7385,7 +7394,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -7399,7 +7408,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -7413,7 +7422,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -7433,7 +7442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>95</v>
       </c>
@@ -7447,7 +7456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -7461,7 +7470,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7523,7 +7532,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -7537,7 +7546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>31</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>32</v>
       </c>
@@ -7565,7 +7574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>720</v>
       </c>
@@ -7585,7 +7594,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7599,7 +7608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7613,7 +7622,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>31</v>
       </c>
@@ -7627,7 +7636,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>32</v>
       </c>
@@ -7641,7 +7650,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7675,7 +7684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -7723,7 +7732,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>95</v>
       </c>
@@ -7737,7 +7746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -7751,7 +7760,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7765,7 +7774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -7779,7 +7788,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -7799,7 +7808,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -7813,7 +7822,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -7827,7 +7836,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -7841,7 +7850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -7861,7 +7870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7875,7 +7884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7895,7 +7904,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>486</v>
       </c>
@@ -7909,7 +7918,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>486</v>
       </c>
@@ -7943,20 +7952,20 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7976,7 +7985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -7996,7 +8005,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -8010,7 +8019,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -8030,7 +8039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -8050,7 +8059,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -8064,7 +8073,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -8084,7 +8093,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8098,7 +8107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -8118,7 +8127,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8132,7 +8141,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -8146,7 +8155,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8160,7 +8169,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -8180,7 +8189,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -8194,7 +8203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -8208,7 +8217,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8228,7 +8237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8242,7 +8251,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8256,7 +8265,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -8270,7 +8279,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -8284,7 +8293,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -8298,7 +8307,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>347</v>
       </c>
@@ -8318,7 +8327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8332,7 +8341,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -8346,7 +8355,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -8360,7 +8369,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -8374,7 +8383,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -8394,7 +8403,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -8408,7 +8417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -8422,7 +8431,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -8436,7 +8445,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -8450,7 +8459,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -8464,7 +8473,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -8478,7 +8487,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>616</v>
       </c>
@@ -8498,7 +8507,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -8512,7 +8521,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8526,7 +8535,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -8546,7 +8555,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -8560,7 +8569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8574,7 +8583,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -8588,7 +8597,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8602,7 +8611,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>622</v>
       </c>
@@ -8622,7 +8631,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8636,7 +8645,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -8650,7 +8659,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>720</v>
       </c>
@@ -8670,7 +8679,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8684,7 +8693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8698,7 +8707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>31</v>
       </c>
@@ -8712,7 +8721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>725</v>
       </c>
@@ -8732,7 +8741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8746,7 +8755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -8760,7 +8769,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -8774,7 +8783,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>32</v>
       </c>
@@ -8788,7 +8797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8808,7 +8817,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>526</v>
       </c>
@@ -8828,7 +8837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -8848,7 +8857,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>16</v>
       </c>
@@ -8862,7 +8871,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -8876,7 +8885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>25</v>
       </c>
@@ -8890,7 +8899,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>31</v>
       </c>
@@ -8904,7 +8913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -8918,7 +8927,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>531</v>
       </c>
@@ -8938,7 +8947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>486</v>
       </c>
@@ -8952,7 +8961,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>486</v>
       </c>
@@ -8989,20 +8998,20 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9022,7 +9031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -9042,7 +9051,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -9056,7 +9065,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -9070,7 +9079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -9084,7 +9093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9107,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -9118,7 +9127,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -9132,7 +9141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -9146,7 +9155,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9160,7 +9169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -9174,7 +9183,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -9188,7 +9197,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -9202,7 +9211,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9222,7 +9231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -9236,7 +9245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -9250,7 +9259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -9264,7 +9273,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -9284,7 +9293,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9298,7 +9307,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9312,7 +9321,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9326,7 +9335,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -9340,7 +9349,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -9360,7 +9369,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -9374,7 +9383,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>537</v>
       </c>
@@ -9391,7 +9400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>650</v>
       </c>
@@ -9402,7 +9411,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -9422,7 +9431,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -9436,7 +9445,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9456,7 +9465,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -9470,7 +9479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -9484,7 +9493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -9498,7 +9507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -9518,7 +9527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -9532,7 +9541,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -9546,7 +9555,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -9560,7 +9569,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -9574,7 +9583,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -9594,7 +9603,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -9608,7 +9617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -9622,7 +9631,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -9636,7 +9645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -9650,7 +9659,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -9664,7 +9673,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -9678,7 +9687,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -9698,7 +9707,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -9712,7 +9721,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -9726,7 +9735,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>720</v>
       </c>
@@ -9746,7 +9755,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -9760,7 +9769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -9774,7 +9783,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>31</v>
       </c>
@@ -9788,7 +9797,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -9802,7 +9811,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -9822,7 +9831,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -9836,7 +9845,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>25</v>
       </c>
@@ -9850,7 +9859,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>31</v>
       </c>
@@ -9864,7 +9873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -9878,7 +9887,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -9898,7 +9907,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>526</v>
       </c>
@@ -9918,7 +9927,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>423</v>
       </c>
@@ -9952,20 +9961,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9985,7 +9994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -10005,7 +10014,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10025,7 +10034,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -10039,7 +10048,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -10053,7 +10062,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -10084,7 +10093,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>601</v>
       </c>
@@ -10095,7 +10104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -10115,7 +10124,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -10129,7 +10138,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -10143,7 +10152,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -10157,7 +10166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10177,7 +10186,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10191,7 +10200,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -10205,7 +10214,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -10225,7 +10234,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -10239,7 +10248,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10253,7 +10262,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -10273,7 +10282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -10287,7 +10296,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -10301,7 +10310,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -10315,7 +10324,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -10329,7 +10338,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -10346,7 +10355,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>495</v>
       </c>
@@ -10357,7 +10366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -10377,7 +10386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10391,7 +10400,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10405,7 +10414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -10419,7 +10428,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -10433,7 +10442,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -10447,7 +10456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -10467,7 +10476,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -10487,7 +10496,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -10501,7 +10510,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -10515,7 +10524,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -10529,7 +10538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>24</v>
       </c>
@@ -10543,7 +10552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -10563,7 +10572,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10577,7 +10586,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>24</v>
       </c>
@@ -10591,7 +10600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -10611,7 +10620,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>95</v>
       </c>
@@ -10625,7 +10634,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -10639,7 +10648,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10653,7 +10662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>24</v>
       </c>
@@ -10667,7 +10676,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>31</v>
       </c>
@@ -10681,7 +10690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>32</v>
       </c>
@@ -10695,7 +10704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>720</v>
       </c>
@@ -10715,7 +10724,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10729,7 +10738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>24</v>
       </c>
@@ -10743,7 +10752,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>725</v>
       </c>
@@ -10763,7 +10772,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -10777,7 +10786,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -10797,7 +10806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>95</v>
       </c>
@@ -10811,7 +10820,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>526</v>
       </c>
@@ -10831,7 +10840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -10845,7 +10854,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -10865,7 +10874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10879,7 +10888,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -10899,7 +10908,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>486</v>
       </c>
@@ -10913,7 +10922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>486</v>
       </c>
@@ -10941,20 +10950,20 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10974,7 +10983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -10994,7 +11003,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -11008,7 +11017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -11028,7 +11037,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -11042,7 +11051,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -11056,7 +11065,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11070,7 +11079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11084,7 +11093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -11098,7 +11107,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -11118,7 +11127,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -11132,7 +11141,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -11146,7 +11155,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -11160,7 +11169,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -11180,7 +11189,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -11194,7 +11203,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -11208,7 +11217,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -11222,7 +11231,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -11236,7 +11245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11256,7 +11265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -11270,7 +11279,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -11284,7 +11293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -11298,7 +11307,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -11312,7 +11321,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -11332,7 +11341,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11346,7 +11355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -11360,7 +11369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11388,20 +11397,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11421,7 +11430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -11441,7 +11450,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11455,7 +11464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -11469,7 +11478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -11489,7 +11498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -11503,7 +11512,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -11517,7 +11526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -11531,7 +11540,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -11545,7 +11554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -11565,7 +11574,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -11579,7 +11588,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -11599,7 +11608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -11613,7 +11622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -11627,7 +11636,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -11647,7 +11656,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11661,7 +11670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -11675,7 +11684,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -11695,7 +11704,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>720</v>
       </c>
@@ -11715,7 +11724,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -11735,7 +11744,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -11749,7 +11758,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11769,7 +11778,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -11783,7 +11792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11797,7 +11806,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11811,7 +11820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -11831,7 +11840,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11845,7 +11854,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>426</v>
       </c>
@@ -11865,7 +11874,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11879,7 +11888,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -11893,7 +11902,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11913,7 +11922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11927,7 +11936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -11941,7 +11950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -11955,7 +11964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>32</v>
       </c>
@@ -11969,7 +11978,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -11989,7 +11998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -12003,7 +12012,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -12032,20 +12041,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12065,7 +12074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12085,7 +12094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12099,7 +12108,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -12113,7 +12122,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -12127,7 +12136,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -12141,7 +12150,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -12161,7 +12170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -12175,7 +12184,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -12189,7 +12198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -12203,7 +12212,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>394</v>
       </c>
@@ -12223,7 +12232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -12237,7 +12246,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -12251,7 +12260,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -12265,7 +12274,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -12285,7 +12294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -12305,7 +12314,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -12319,7 +12328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12333,7 +12342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -12347,7 +12356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -12361,7 +12370,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12381,7 +12390,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -12395,7 +12404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -12409,7 +12418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -12423,7 +12432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>347</v>
       </c>
@@ -12443,7 +12452,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -12457,7 +12466,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>347</v>
       </c>
@@ -12477,7 +12486,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -12491,7 +12500,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>555</v>
       </c>
@@ -12511,7 +12520,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -12525,7 +12534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -12539,7 +12548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -12553,7 +12562,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>756</v>
       </c>
@@ -12573,7 +12582,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12587,7 +12596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -12601,7 +12610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -12615,7 +12624,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -12635,7 +12644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>95</v>
       </c>
@@ -12649,7 +12658,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -12663,7 +12672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -12677,7 +12686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -12691,7 +12700,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>31</v>
       </c>
@@ -12705,7 +12714,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>622</v>
       </c>
@@ -12725,7 +12734,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -12739,7 +12748,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -12759,7 +12768,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -12773,7 +12782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12787,7 +12796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -12801,7 +12810,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>765</v>
       </c>
@@ -12815,7 +12824,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>32</v>
       </c>
@@ -12829,7 +12838,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>725</v>
       </c>
@@ -12849,7 +12858,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -12863,7 +12872,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -12900,20 +12909,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12933,7 +12942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>770</v>
       </c>
@@ -12964,23 +12973,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13000,7 +13009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>333</v>
       </c>
@@ -13018,6 +13027,26 @@
       </c>
       <c r="F2" t="s">
         <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -13034,20 +13063,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13067,7 +13096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13087,7 +13116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13101,7 +13130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -13115,7 +13144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -13129,7 +13158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -13143,7 +13172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13163,7 +13192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -13177,7 +13206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -13191,7 +13220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -13205,7 +13234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -13219,7 +13248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13234,20 +13263,20 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -13267,7 +13296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -13289,7 +13318,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -13311,7 +13340,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -13333,7 +13362,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13354,7 +13383,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13375,7 +13404,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13396,7 +13425,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13417,7 +13446,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13438,7 +13467,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13459,7 +13488,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13480,7 +13509,7 @@
         <v>0.65306122448979587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13501,7 +13530,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13522,7 +13551,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13543,7 +13572,7 @@
         <v>0.76086956521739135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13564,7 +13593,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13585,7 +13614,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13606,7 +13635,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13627,7 +13656,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -13648,12 +13677,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2024</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -13662,20 +13691,20 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3">
         <f>SUM(B2:B20)</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C21" s="3">
         <f>SUM(C2:C20)</f>
@@ -13687,20 +13716,20 @@
       </c>
       <c r="E21" s="3">
         <f>SUM(E2:E20)</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.58260869565217388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.5808695652173913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>722</v>
       </c>
       <c r="B22" s="3">
         <f>AVERAGE(B2:B20)</f>
-        <v>14.578947368421053</v>
+        <v>14.631578947368421</v>
       </c>
       <c r="C22" s="3">
         <f>AVERAGE(C2:C20)</f>
@@ -13712,11 +13741,11 @@
       </c>
       <c r="E22" s="3">
         <f>AVERAGE(E2:E20)</f>
-        <v>12.631578947368421</v>
+        <v>12.684210526315789</v>
       </c>
       <c r="F22" s="4">
         <f>(D22-E22)/D22</f>
-        <v>0.58260869565217388</v>
+        <v>0.58086956521739141</v>
       </c>
     </row>
   </sheetData>
@@ -13742,20 +13771,20 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13775,7 +13804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -13795,7 +13824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13809,7 +13838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -13829,7 +13858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -13843,7 +13872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -13857,7 +13886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -13871,7 +13900,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -13885,7 +13914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -13905,7 +13934,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -13925,7 +13954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -13939,7 +13968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -13953,7 +13982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -13967,7 +13996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -13981,7 +14010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -14001,7 +14030,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -14015,7 +14044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -14029,7 +14058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -14049,7 +14078,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -14063,7 +14092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -14077,7 +14106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -14091,7 +14120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -14105,7 +14134,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -14125,7 +14154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -14139,7 +14168,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -14153,7 +14182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -14167,7 +14196,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -14181,7 +14210,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -14195,7 +14224,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -14215,7 +14244,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -14235,7 +14264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -14249,7 +14278,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -14269,8 +14298,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -14290,7 +14319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>61</v>
       </c>
@@ -14304,7 +14333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -14318,7 +14347,7 @@
         <v>74</v>
       </c>
 